--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-2.0.0-saudiarabia-wipH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\Saudi Arabia\Models\eps-saudiarabia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90158A2A-603B-44A9-BEEF-BC72AD61108A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="18960" windowHeight="6210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="10" r:id="rId1"/>
@@ -23,17 +24,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PolicyLevers!$A$1:$P$535</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jeffrey Rissman</author>
   </authors>
   <commentList>
-    <comment ref="K200" authorId="0" shapeId="0">
+    <comment ref="K200" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K201" authorId="0" shapeId="0">
+    <comment ref="K201" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K202" authorId="0" shapeId="0">
+    <comment ref="K202" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K203" authorId="0" shapeId="0">
+    <comment ref="K203" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K204" authorId="0" shapeId="0">
+    <comment ref="K204" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K205" authorId="0" shapeId="0">
+    <comment ref="K205" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K206" authorId="0" shapeId="0">
+    <comment ref="K206" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K208" authorId="0" shapeId="0">
+    <comment ref="K208" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -225,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K209" authorId="0" shapeId="0">
+    <comment ref="K209" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -249,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K210" authorId="0" shapeId="0">
+    <comment ref="K210" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K211" authorId="0" shapeId="0">
+    <comment ref="K211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K212" authorId="0" shapeId="0">
+    <comment ref="K212" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -321,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K213" authorId="0" shapeId="0">
+    <comment ref="K213" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K214" authorId="0" shapeId="0">
+    <comment ref="K214" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K215" authorId="0" shapeId="0">
+    <comment ref="K215" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -393,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K216" authorId="0" shapeId="0">
+    <comment ref="K216" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -417,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K218" authorId="0" shapeId="0">
+    <comment ref="K218" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -446,18 +458,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="OuputGraphSchema" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="OuputGraphSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="Z:\todd\Projects\PolicySolutions\tools\lib\OuputGraphSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="PolicyLeverSchema" type="4" refreshedVersion="0" background="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="PolicyLeverSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="Z:\todd\Projects\PolicySolutions\tools\lib\PolicyLeverSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4786" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4786" uniqueCount="1579">
   <si>
     <t>Short Name</t>
   </si>
@@ -5477,11 +5489,14 @@
   <si>
     <t>Output Water Consumed by Power Plants[geothermal es]; Output Water Consumed by Power Plants[solar thermal es]; Output Water Consumed by Power Plants[solar PV es]; Output Water Consumed by Power Plants[nuclear es]; Output Water Consumed by Power Plants[municipal solid waste es]; Output Water Consumed by Power Plants[petroleum es]; Output Water Consumed by Power Plants[heavy or residual fuel oil es]; Output Water Consumed by Power Plants[crude oil es]; Output Water Consumed by Power Plants[natural gas peaker es]; Output Water Consumed by Power Plants[natural gas nonpeaker es]</t>
   </si>
+  <si>
+    <t>Scenario_BAU.cin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -6679,6 +6694,9 @@
     <xf numFmtId="1" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6688,34 +6706,31 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="2x indented GHG Textfiels" xfId="10"/>
-    <cellStyle name="5x indented GHG Textfiels" xfId="11"/>
-    <cellStyle name="AggCels" xfId="12"/>
-    <cellStyle name="AggGreen_bld" xfId="15"/>
-    <cellStyle name="Body: normal cell 2" xfId="5"/>
-    <cellStyle name="Comma 6" xfId="6"/>
-    <cellStyle name="Constants" xfId="8"/>
-    <cellStyle name="CustomizationCells" xfId="17"/>
-    <cellStyle name="Empty_B_border" xfId="16"/>
-    <cellStyle name="Header: bottom row 2" xfId="4"/>
-    <cellStyle name="Headline" xfId="7"/>
+    <cellStyle name="2x indented GHG Textfiels" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="AggCels" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="AggGreen_bld" xfId="15" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Constants" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="CustomizationCells" xfId="17" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Empty_B_border" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Headline" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="19" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Normal GHG Textfiels Bold" xfId="9"/>
-    <cellStyle name="Normal GHG-Shade" xfId="14"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="9" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
-    <cellStyle name="Обычный_CRF2002 (1)" xfId="13"/>
+    <cellStyle name="Обычный_CRF2002 (1)" xfId="13" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
@@ -7663,10 +7678,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -7879,7 +7894,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -7887,7 +7902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T560"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -38934,185 +38949,57 @@
       <c r="R544" s="4"/>
       <c r="T544" s="4"/>
     </row>
-    <row r="545" spans="1:20">
-      <c r="A545" s="4"/>
-      <c r="B545" s="4"/>
-      <c r="C545" s="4"/>
-      <c r="H545" s="4"/>
-      <c r="J545" s="4"/>
-      <c r="M545" s="4"/>
-      <c r="N545" s="4"/>
-      <c r="R545" s="4"/>
-      <c r="T545" s="4"/>
-    </row>
-    <row r="546" spans="1:20">
-      <c r="A546" s="4"/>
-      <c r="B546" s="4"/>
-      <c r="C546" s="4"/>
-      <c r="H546" s="4"/>
-      <c r="J546" s="4"/>
-      <c r="M546" s="4"/>
-      <c r="N546" s="4"/>
-      <c r="R546" s="4"/>
-      <c r="T546" s="4"/>
-    </row>
-    <row r="547" spans="1:20">
-      <c r="A547" s="4"/>
-      <c r="B547" s="4"/>
-      <c r="C547" s="4"/>
-      <c r="H547" s="4"/>
+    <row r="545" spans="9:19" s="4" customFormat="1">
+      <c r="S545" s="6"/>
+    </row>
+    <row r="546" spans="9:19" s="4" customFormat="1">
+      <c r="S546" s="6"/>
+    </row>
+    <row r="547" spans="9:19" s="4" customFormat="1">
       <c r="I547" s="52"/>
-      <c r="J547" s="4"/>
-      <c r="M547" s="4"/>
-      <c r="N547" s="4"/>
-      <c r="R547" s="4"/>
-      <c r="T547" s="4"/>
-    </row>
-    <row r="548" spans="1:20">
-      <c r="A548" s="4"/>
-      <c r="B548" s="4"/>
-      <c r="C548" s="4"/>
-      <c r="H548" s="4"/>
-      <c r="J548" s="4"/>
-      <c r="M548" s="4"/>
-      <c r="N548" s="4"/>
-      <c r="R548" s="4"/>
-      <c r="T548" s="4"/>
-    </row>
-    <row r="549" spans="1:20">
-      <c r="A549" s="4"/>
-      <c r="B549" s="4"/>
-      <c r="C549" s="4"/>
-      <c r="H549" s="4"/>
-      <c r="J549" s="4"/>
-      <c r="M549" s="4"/>
-      <c r="N549" s="4"/>
-      <c r="R549" s="4"/>
-      <c r="T549" s="4"/>
-    </row>
-    <row r="550" spans="1:20">
-      <c r="A550" s="4"/>
-      <c r="B550" s="4"/>
-      <c r="C550" s="4"/>
-      <c r="H550" s="4"/>
-      <c r="J550" s="4"/>
-      <c r="M550" s="4"/>
-      <c r="N550" s="4"/>
-      <c r="R550" s="4"/>
-      <c r="T550" s="4"/>
-    </row>
-    <row r="551" spans="1:20">
-      <c r="A551" s="4"/>
-      <c r="B551" s="4"/>
-      <c r="C551" s="4"/>
-      <c r="H551" s="4"/>
-      <c r="J551" s="4"/>
-      <c r="M551" s="4"/>
-      <c r="N551" s="4"/>
-      <c r="R551" s="4"/>
-      <c r="T551" s="4"/>
-    </row>
-    <row r="552" spans="1:20">
-      <c r="A552" s="4"/>
-      <c r="B552" s="4"/>
-      <c r="C552" s="4"/>
-      <c r="H552" s="4"/>
-      <c r="J552" s="4"/>
-      <c r="M552" s="4"/>
-      <c r="N552" s="4"/>
-      <c r="R552" s="4"/>
-      <c r="T552" s="4"/>
-    </row>
-    <row r="553" spans="1:20">
-      <c r="A553" s="4"/>
-      <c r="B553" s="4"/>
-      <c r="C553" s="4"/>
-      <c r="H553" s="4"/>
-      <c r="J553" s="4"/>
-      <c r="M553" s="4"/>
-      <c r="N553" s="4"/>
-      <c r="R553" s="4"/>
-      <c r="T553" s="4"/>
-    </row>
-    <row r="554" spans="1:20">
-      <c r="A554" s="4"/>
-      <c r="B554" s="4"/>
-      <c r="C554" s="4"/>
-      <c r="H554" s="4"/>
-      <c r="J554" s="4"/>
-      <c r="M554" s="4"/>
-      <c r="N554" s="4"/>
-      <c r="R554" s="4"/>
-      <c r="T554" s="4"/>
-    </row>
-    <row r="555" spans="1:20">
-      <c r="A555" s="4"/>
-      <c r="B555" s="4"/>
-      <c r="C555" s="4"/>
-      <c r="H555" s="4"/>
-      <c r="J555" s="4"/>
-      <c r="M555" s="4"/>
-      <c r="N555" s="4"/>
-      <c r="R555" s="4"/>
-      <c r="T555" s="4"/>
-    </row>
-    <row r="556" spans="1:20">
-      <c r="A556" s="4"/>
-      <c r="B556" s="4"/>
-      <c r="C556" s="4"/>
-      <c r="H556" s="4"/>
-      <c r="J556" s="4"/>
-      <c r="M556" s="4"/>
-      <c r="N556" s="4"/>
-      <c r="R556" s="4"/>
-      <c r="T556" s="4"/>
-    </row>
-    <row r="557" spans="1:20">
-      <c r="A557" s="4"/>
-      <c r="B557" s="4"/>
-      <c r="C557" s="4"/>
-      <c r="H557" s="4"/>
-      <c r="J557" s="4"/>
-      <c r="M557" s="4"/>
-      <c r="N557" s="4"/>
-      <c r="R557" s="4"/>
-      <c r="T557" s="4"/>
-    </row>
-    <row r="558" spans="1:20">
-      <c r="A558" s="4"/>
-      <c r="B558" s="4"/>
-      <c r="C558" s="4"/>
-      <c r="H558" s="4"/>
-      <c r="J558" s="4"/>
-      <c r="M558" s="4"/>
-      <c r="N558" s="4"/>
-      <c r="R558" s="4"/>
-      <c r="T558" s="4"/>
-    </row>
-    <row r="559" spans="1:20">
-      <c r="A559" s="4"/>
-      <c r="B559" s="4"/>
-      <c r="C559" s="4"/>
-      <c r="H559" s="4"/>
-      <c r="J559" s="4"/>
-      <c r="M559" s="4"/>
-      <c r="N559" s="4"/>
-      <c r="R559" s="4"/>
-      <c r="T559" s="4"/>
-    </row>
-    <row r="560" spans="1:20">
-      <c r="A560" s="4"/>
-      <c r="B560" s="4"/>
-      <c r="C560" s="4"/>
-      <c r="H560" s="4"/>
-      <c r="J560" s="4"/>
-      <c r="M560" s="4"/>
-      <c r="N560" s="4"/>
-      <c r="R560" s="4"/>
-      <c r="T560" s="4"/>
+      <c r="S547" s="6"/>
+    </row>
+    <row r="548" spans="9:19" s="4" customFormat="1">
+      <c r="S548" s="6"/>
+    </row>
+    <row r="549" spans="9:19" s="4" customFormat="1">
+      <c r="S549" s="6"/>
+    </row>
+    <row r="550" spans="9:19" s="4" customFormat="1">
+      <c r="S550" s="6"/>
+    </row>
+    <row r="551" spans="9:19" s="4" customFormat="1">
+      <c r="S551" s="6"/>
+    </row>
+    <row r="552" spans="9:19" s="4" customFormat="1">
+      <c r="S552" s="6"/>
+    </row>
+    <row r="553" spans="9:19" s="4" customFormat="1">
+      <c r="S553" s="6"/>
+    </row>
+    <row r="554" spans="9:19" s="4" customFormat="1">
+      <c r="S554" s="6"/>
+    </row>
+    <row r="555" spans="9:19" s="4" customFormat="1">
+      <c r="S555" s="6"/>
+    </row>
+    <row r="556" spans="9:19" s="4" customFormat="1">
+      <c r="S556" s="6"/>
+    </row>
+    <row r="557" spans="9:19" s="4" customFormat="1">
+      <c r="S557" s="6"/>
+    </row>
+    <row r="558" spans="9:19" s="4" customFormat="1">
+      <c r="S558" s="6"/>
+    </row>
+    <row r="559" spans="9:19" s="4" customFormat="1">
+      <c r="S559" s="6"/>
+    </row>
+    <row r="560" spans="9:19" s="4" customFormat="1">
+      <c r="S560" s="6"/>
     </row>
   </sheetData>
-  <sortState ref="A119:I139">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A119:I139">
     <sortCondition ref="B119:B139"/>
   </sortState>
   <conditionalFormatting sqref="I76:I88 I487:I488 I522 I527:I546 I548:I1048576 I90:I99 I1:I9 I12:I19 I24 I33:I36 I43:I46 I53:I59 I38:I39 I48:I49 I63:I64 I113:I176 I492:I520 I373:I485 I178:I302">
@@ -39316,8 +39203,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T390" r:id="rId1" display="https://www.fas.org/sgp/crs/misc/R40562.pdf, p.3, paragraph 1"/>
-    <hyperlink ref="S101" r:id="rId2"/>
+    <hyperlink ref="T390" r:id="rId1" display="https://www.fas.org/sgp/crs/misc/R40562.pdf, p.3, paragraph 1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="S101" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -39329,7 +39216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H119"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -42226,7 +42113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
@@ -44344,10 +44231,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
@@ -44369,7 +44258,7 @@
         <v>158</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>81</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -44395,7 +44284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -44488,7 +44377,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -44496,7 +44385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AM197"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
@@ -44526,13 +44415,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="199" t="s">
@@ -44601,13 +44490,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="198" t="s">
+      <c r="A60" s="195" t="s">
         <v>181</v>
       </c>
-      <c r="B60" s="198"/>
-      <c r="C60" s="198"/>
-      <c r="D60" s="198"/>
-      <c r="E60" s="198"/>
+      <c r="B60" s="195"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="195"/>
+      <c r="E60" s="195"/>
     </row>
     <row r="85" spans="1:39" s="12" customFormat="1">
       <c r="A85" s="9" t="s">
@@ -44712,13 +44601,13 @@
       </c>
     </row>
     <row r="89" spans="1:39">
-      <c r="A89" s="198" t="s">
+      <c r="A89" s="195" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="198"/>
-      <c r="C89" s="198"/>
-      <c r="D89" s="198"/>
-      <c r="E89" s="198"/>
+      <c r="B89" s="195"/>
+      <c r="C89" s="195"/>
+      <c r="D89" s="195"/>
+      <c r="E89" s="195"/>
     </row>
     <row r="90" spans="1:39">
       <c r="A90" s="9">
@@ -44805,13 +44694,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="198" t="s">
+      <c r="A98" s="195" t="s">
         <v>183</v>
       </c>
-      <c r="B98" s="198"/>
-      <c r="C98" s="198"/>
-      <c r="D98" s="198"/>
-      <c r="E98" s="198"/>
+      <c r="B98" s="195"/>
+      <c r="C98" s="195"/>
+      <c r="D98" s="195"/>
+      <c r="E98" s="195"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="17">
@@ -44895,13 +44784,13 @@
       <c r="A108" s="20"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="198" t="s">
+      <c r="A109" s="195" t="s">
         <v>185</v>
       </c>
-      <c r="B109" s="198"/>
-      <c r="C109" s="198"/>
-      <c r="D109" s="198"/>
-      <c r="E109" s="198"/>
+      <c r="B109" s="195"/>
+      <c r="C109" s="195"/>
+      <c r="D109" s="195"/>
+      <c r="E109" s="195"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="111" spans="1:5" ht="15.75" thickBot="1">
@@ -44914,13 +44803,13 @@
       </c>
     </row>
     <row r="113" spans="1:14">
-      <c r="A113" s="198" t="s">
+      <c r="A113" s="195" t="s">
         <v>184</v>
       </c>
-      <c r="B113" s="198"/>
-      <c r="C113" s="198"/>
-      <c r="D113" s="198"/>
-      <c r="E113" s="198"/>
+      <c r="B113" s="195"/>
+      <c r="C113" s="195"/>
+      <c r="D113" s="195"/>
+      <c r="E113" s="195"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="17">
@@ -45001,13 +44890,13 @@
       </c>
     </row>
     <row r="124" spans="1:14">
-      <c r="A124" s="198" t="s">
+      <c r="A124" s="195" t="s">
         <v>450</v>
       </c>
-      <c r="B124" s="198"/>
-      <c r="C124" s="198"/>
-      <c r="D124" s="198"/>
-      <c r="E124" s="198"/>
+      <c r="B124" s="195"/>
+      <c r="C124" s="195"/>
+      <c r="D124" s="195"/>
+      <c r="E124" s="195"/>
       <c r="L124" s="21"/>
     </row>
     <row r="125" spans="1:14">
@@ -45098,13 +44987,13 @@
       <c r="C133" s="15"/>
     </row>
     <row r="134" spans="1:14">
-      <c r="A134" s="198" t="s">
+      <c r="A134" s="195" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="198"/>
-      <c r="C134" s="198"/>
-      <c r="D134" s="198"/>
-      <c r="E134" s="198"/>
+      <c r="B134" s="195"/>
+      <c r="C134" s="195"/>
+      <c r="D134" s="195"/>
+      <c r="E134" s="195"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="27" t="s">
@@ -45119,25 +45008,25 @@
     </row>
     <row r="136" spans="1:14" ht="15.75">
       <c r="A136" s="29"/>
-      <c r="B136" s="195" t="s">
+      <c r="B136" s="196" t="s">
         <v>470</v>
       </c>
-      <c r="C136" s="196"/>
-      <c r="D136" s="196"/>
-      <c r="E136" s="197"/>
+      <c r="C136" s="197"/>
+      <c r="D136" s="197"/>
+      <c r="E136" s="198"/>
       <c r="F136" s="28"/>
       <c r="G136" s="28"/>
     </row>
     <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="30"/>
-      <c r="B137" s="195" t="s">
+      <c r="B137" s="196" t="s">
         <v>471</v>
       </c>
-      <c r="C137" s="197"/>
-      <c r="D137" s="195" t="s">
+      <c r="C137" s="198"/>
+      <c r="D137" s="196" t="s">
         <v>472</v>
       </c>
-      <c r="E137" s="197"/>
+      <c r="E137" s="198"/>
       <c r="F137" s="28"/>
       <c r="G137" s="28"/>
     </row>
@@ -45684,13 +45573,13 @@
       <c r="G163" s="28"/>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="198" t="s">
+      <c r="A165" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="B165" s="198"/>
-      <c r="C165" s="198"/>
-      <c r="D165" s="198"/>
-      <c r="E165" s="198"/>
+      <c r="B165" s="195"/>
+      <c r="C165" s="195"/>
+      <c r="D165" s="195"/>
+      <c r="E165" s="195"/>
     </row>
     <row r="166" spans="1:7" ht="15.75" thickBot="1">
       <c r="A166" s="23" t="s">
@@ -45713,10 +45602,10 @@
       <c r="B168" s="46"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="198" t="s">
+      <c r="A169" s="195" t="s">
         <v>458</v>
       </c>
-      <c r="B169" s="198"/>
+      <c r="B169" s="195"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="23" t="s">
@@ -45748,13 +45637,13 @@
       <c r="B173" s="46"/>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="198" t="s">
+      <c r="A174" s="195" t="s">
         <v>197</v>
       </c>
-      <c r="B174" s="198"/>
-      <c r="C174" s="198"/>
-      <c r="D174" s="198"/>
-      <c r="E174" s="198"/>
+      <c r="B174" s="195"/>
+      <c r="C174" s="195"/>
+      <c r="D174" s="195"/>
+      <c r="E174" s="195"/>
     </row>
     <row r="175" spans="1:7" ht="15.75" thickBot="1">
       <c r="A175" s="23" t="s">
@@ -45774,13 +45663,13 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="198" t="s">
+      <c r="A178" s="195" t="s">
         <v>191</v>
       </c>
-      <c r="B178" s="198"/>
-      <c r="C178" s="198"/>
-      <c r="D178" s="198"/>
-      <c r="E178" s="198"/>
+      <c r="B178" s="195"/>
+      <c r="C178" s="195"/>
+      <c r="D178" s="195"/>
+      <c r="E178" s="195"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="25" t="s">
@@ -45808,13 +45697,13 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="198" t="s">
+      <c r="A183" s="195" t="s">
         <v>193</v>
       </c>
-      <c r="B183" s="198"/>
-      <c r="C183" s="198"/>
-      <c r="D183" s="198"/>
-      <c r="E183" s="198"/>
+      <c r="B183" s="195"/>
+      <c r="C183" s="195"/>
+      <c r="D183" s="195"/>
+      <c r="E183" s="195"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="23" t="s">
@@ -45869,13 +45758,13 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="198" t="s">
+      <c r="A191" s="195" t="s">
         <v>207</v>
       </c>
-      <c r="B191" s="198"/>
-      <c r="C191" s="198"/>
-      <c r="D191" s="198"/>
-      <c r="E191" s="198"/>
+      <c r="B191" s="195"/>
+      <c r="C191" s="195"/>
+      <c r="D191" s="195"/>
+      <c r="E191" s="195"/>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="21" t="s">
@@ -45935,12 +45824,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -45955,6 +45838,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-saudiarabia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4EF5B0-9E72-4AEF-A9D3-BB29EB701096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024082B1-B20D-49FD-A813-7F478CFE701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5152,220 +5152,220 @@
     <t>This tab contains information about each policy that does not vary by subscripted element of that policy.</t>
   </si>
   <si>
-    <t>Agriculture, Land Use, and Water- Desalination Energy Efficiency Standards</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Livestock Measures</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Rice Cultivation Measures</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Shift to Non-Animal Products</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Water Conservation</t>
-  </si>
-  <si>
-    <t>Buildings and Appliances- Building Component Electrification</t>
-  </si>
-  <si>
-    <t>Buildings and Appliances- Building Energy Efficiency Standards</t>
-  </si>
-  <si>
-    <t>Buildings and Appliances- Contractor Training</t>
-  </si>
-  <si>
-    <t>Buildings and Appliances- Distributed Solar Carve-Out</t>
-  </si>
-  <si>
-    <t>Buildings and Appliances- Distributed Solar Subsidy</t>
-  </si>
-  <si>
-    <t>Buildings and Appliances- Improved Labeling</t>
-  </si>
-  <si>
-    <t>Buildings and Appliances- Rebate for Efficient Products</t>
-  </si>
-  <si>
-    <t>Buildings and Appliances- Retrofit Existing Buildings</t>
-  </si>
-  <si>
-    <t>Cross-Sector- Domestic Carbon Pricing</t>
-  </si>
-  <si>
-    <t>Cross-Sector- Fuel Taxes</t>
-  </si>
-  <si>
-    <t>District Heat and Hydrogen- Switch District Heat Coal to NG</t>
-  </si>
-  <si>
-    <t>District Heat and Hydrogen- Use CHP for District Heat</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Demand Response</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Grid-Scale Electricity Storage</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Increase Transmission</t>
-  </si>
-  <si>
-    <t>Electricity Supply- KSA 2030 Renewables Target</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Non BAU RPS Qualifying Resources</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Nuclear Plant Lifetime Extension</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Reduce Soft Costs</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Reduce Transmission &amp; Distribution Losses</t>
-  </si>
-  <si>
-    <t>Industry- Cogeneration and Waste Heat Recovery</t>
-  </si>
-  <si>
-    <t>Industry- Early Retirement of Industrial Facilities</t>
-  </si>
-  <si>
-    <t>Industry- Improved System Design</t>
-  </si>
-  <si>
-    <t>Industry- Industry Energy Efficiency Standards</t>
-  </si>
-  <si>
-    <t>Industry- Material Efficiency, Longevity, &amp; Re-Use</t>
-  </si>
-  <si>
-    <t>Industry- Methane Capture</t>
-  </si>
-  <si>
-    <t>Industry- Methane Destruction</t>
-  </si>
-  <si>
-    <t>Industry- Reduce F-gases</t>
-  </si>
-  <si>
-    <t>Industry- Reduce Fossil Fuel Exports</t>
-  </si>
-  <si>
-    <t>Industry- Worker Training</t>
-  </si>
-  <si>
-    <t>Research and Development- Capital Cost Reduction</t>
-  </si>
-  <si>
-    <t>Research and Development- Fuel Use Reduction</t>
-  </si>
-  <si>
-    <t>Transportation- Conventional Pollutant Standards</t>
-  </si>
-  <si>
-    <t>Transportation- Electric Vehicle Charger Deployment</t>
-  </si>
-  <si>
-    <t>Transportation- Electric Vehicle Range &amp; Charging Time</t>
-  </si>
-  <si>
-    <t>Transportation- Electric Vehicle Sales Mandate</t>
-  </si>
-  <si>
-    <t>Transportation- Electric Vehicle Subsidy</t>
-  </si>
-  <si>
-    <t>Transportation- Feebate</t>
-  </si>
-  <si>
-    <t>Transportation- Fuel Economy Standard</t>
-  </si>
-  <si>
-    <t>Transportation- Hydrogen Vehicle Sales Mandate</t>
-  </si>
-  <si>
-    <t>Transportation- Transportation Demand Management</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Afforestation</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Avoid Desertification</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Cropland Management</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Forest Restoration</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Forest Set-Asides</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Improved Forest Management</t>
-  </si>
-  <si>
-    <t>Agriculture, Land Use, and Water- Peatland Restoration</t>
-  </si>
-  <si>
-    <t>Cross-Sector- Carbon Capture, Use, &amp; Sequestration</t>
-  </si>
-  <si>
-    <t>Cross-Sector- End Existing Subsidies</t>
-  </si>
-  <si>
-    <t>Cross-Sector- Fuel Price Deregulation</t>
-  </si>
-  <si>
-    <t>Cross-Sector- Shift Hydrogen Production to Electrolysis</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Carbon-free Electricity Standard</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Non BAU Guaranteed Dispatch</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Subsidy for Electricity Production</t>
-  </si>
-  <si>
-    <t>Industry- Cement Clinker Substitution</t>
-  </si>
-  <si>
-    <t>Industry- Electrification + Hydrogen</t>
-  </si>
-  <si>
-    <t>Transportation- Low Carbon Fuel Standard</t>
-  </si>
-  <si>
-    <t>Cross-Sector- Exempt Non-CO2 Emissions from C Tax</t>
-  </si>
-  <si>
-    <t>Cross-Sector- Exempt Process Emissions from C Tax</t>
-  </si>
-  <si>
-    <t>Cross-Sector- Fixed Energy Prices</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Ban New Power Plants</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Change Electricity Exports</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Change Electricity Imports</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Early Retirement of Power Plants</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Non BAU Mandated Capacity Construction</t>
-  </si>
-  <si>
-    <t>Electricity Supply- Reduce Plant Downtime</t>
+    <t>Agriculture, Land Use, and Water - Desalination Energy Efficiency Standards</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Livestock Measures</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Rice Cultivation Measures</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Shift to Non -Animal Products</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Water Conservation</t>
+  </si>
+  <si>
+    <t>Buildings and Appliances - Building Component Electrification</t>
+  </si>
+  <si>
+    <t>Buildings and Appliances - Building Energy Efficiency Standards</t>
+  </si>
+  <si>
+    <t>Buildings and Appliances - Contractor Training</t>
+  </si>
+  <si>
+    <t>Buildings and Appliances - Distributed Solar Carve -Out</t>
+  </si>
+  <si>
+    <t>Buildings and Appliances - Distributed Solar Subsidy</t>
+  </si>
+  <si>
+    <t>Buildings and Appliances - Improved Labeling</t>
+  </si>
+  <si>
+    <t>Buildings and Appliances - Rebate for Efficient Products</t>
+  </si>
+  <si>
+    <t>Buildings and Appliances - Retrofit Existing Buildings</t>
+  </si>
+  <si>
+    <t>Cross -Sector - Domestic Carbon Pricing</t>
+  </si>
+  <si>
+    <t>Cross -Sector - Fuel Taxes</t>
+  </si>
+  <si>
+    <t>District Heat and Hydrogen - Switch District Heat Coal to NG</t>
+  </si>
+  <si>
+    <t>District Heat and Hydrogen - Use CHP for District Heat</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Demand Response</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Grid -Scale Electricity Storage</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Increase Transmission</t>
+  </si>
+  <si>
+    <t>Electricity Supply - KSA 2030 Renewables Target</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Non BAU RPS Qualifying Resources</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Nuclear Plant Lifetime Extension</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Reduce Soft Costs</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Reduce Transmission &amp; Distribution Losses</t>
+  </si>
+  <si>
+    <t>Industry - Cogeneration and Waste Heat Recovery</t>
+  </si>
+  <si>
+    <t>Industry - Early Retirement of Industrial Facilities</t>
+  </si>
+  <si>
+    <t>Industry - Improved System Design</t>
+  </si>
+  <si>
+    <t>Industry - Industry Energy Efficiency Standards</t>
+  </si>
+  <si>
+    <t>Industry - Material Efficiency, Longevity, &amp; Re -Use</t>
+  </si>
+  <si>
+    <t>Industry - Methane Capture</t>
+  </si>
+  <si>
+    <t>Industry - Methane Destruction</t>
+  </si>
+  <si>
+    <t>Industry - Reduce F -gases</t>
+  </si>
+  <si>
+    <t>Industry - Reduce Fossil Fuel Exports</t>
+  </si>
+  <si>
+    <t>Industry - Worker Training</t>
+  </si>
+  <si>
+    <t>Research and Development - Capital Cost Reduction</t>
+  </si>
+  <si>
+    <t>Research and Development - Fuel Use Reduction</t>
+  </si>
+  <si>
+    <t>Transportation - Conventional Pollutant Standards</t>
+  </si>
+  <si>
+    <t>Transportation - Electric Vehicle Charger Deployment</t>
+  </si>
+  <si>
+    <t>Transportation - Electric Vehicle Range &amp; Charging Time</t>
+  </si>
+  <si>
+    <t>Transportation - Electric Vehicle Sales Mandate</t>
+  </si>
+  <si>
+    <t>Transportation - Electric Vehicle Subsidy</t>
+  </si>
+  <si>
+    <t>Transportation - Feebate</t>
+  </si>
+  <si>
+    <t>Transportation - Fuel Economy Standard</t>
+  </si>
+  <si>
+    <t>Transportation - Hydrogen Vehicle Sales Mandate</t>
+  </si>
+  <si>
+    <t>Transportation - Transportation Demand Management</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Afforestation</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Avoid Desertification</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Cropland Management</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Forest Restoration</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Forest Set -Asides</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Improved Forest Management</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Peatland Restoration</t>
+  </si>
+  <si>
+    <t>Cross -Sector - Carbon Capture, Use, &amp; Sequestration</t>
+  </si>
+  <si>
+    <t>Cross -Sector - End Existing Subsidies</t>
+  </si>
+  <si>
+    <t>Cross -Sector - Fuel Price Deregulation</t>
+  </si>
+  <si>
+    <t>Cross -Sector - Shift Hydrogen Production to Electrolysis</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Carbon -free Electricity Standard</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Non BAU Guaranteed Dispatch</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Subsidy for Electricity Production</t>
+  </si>
+  <si>
+    <t>Industry - Cement Clinker Substitution</t>
+  </si>
+  <si>
+    <t>Industry - Electrification + Hydrogen</t>
+  </si>
+  <si>
+    <t>Transportation - Low Carbon Fuel Standard</t>
+  </si>
+  <si>
+    <t>Cross -Sector - Exempt Non -CO2 Emissions from C Tax</t>
+  </si>
+  <si>
+    <t>Cross -Sector - Exempt Process Emissions from C Tax</t>
+  </si>
+  <si>
+    <t>Cross -Sector - Fixed Energy Prices</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Ban New Power Plants</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Change Electricity Exports</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Change Electricity Imports</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Early Retirement of Power Plants</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Non BAU Mandated Capacity Construction</t>
+  </si>
+  <si>
+    <t>Electricity Supply - Reduce Plant Downtime</t>
   </si>
 </sst>
 </file>
@@ -6557,9 +6557,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6568,6 +6565,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10998,7 +10998,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -44842,13 +44842,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="218" t="s">
@@ -44917,13 +44917,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="214" t="s">
+      <c r="A60" s="217" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="214"/>
-      <c r="C60" s="214"/>
-      <c r="D60" s="214"/>
-      <c r="E60" s="214"/>
+      <c r="B60" s="217"/>
+      <c r="C60" s="217"/>
+      <c r="D60" s="217"/>
+      <c r="E60" s="217"/>
     </row>
     <row r="85" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
@@ -45028,13 +45028,13 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A89" s="214" t="s">
+      <c r="A89" s="217" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="214"/>
-      <c r="C89" s="214"/>
-      <c r="D89" s="214"/>
-      <c r="E89" s="214"/>
+      <c r="B89" s="217"/>
+      <c r="C89" s="217"/>
+      <c r="D89" s="217"/>
+      <c r="E89" s="217"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
@@ -45121,13 +45121,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="214" t="s">
+      <c r="A98" s="217" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="214"/>
-      <c r="C98" s="214"/>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
+      <c r="B98" s="217"/>
+      <c r="C98" s="217"/>
+      <c r="D98" s="217"/>
+      <c r="E98" s="217"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="16">
@@ -45211,13 +45211,13 @@
       <c r="A108" s="19"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="214" t="s">
+      <c r="A109" s="217" t="s">
         <v>156</v>
       </c>
-      <c r="B109" s="214"/>
-      <c r="C109" s="214"/>
-      <c r="D109" s="214"/>
-      <c r="E109" s="214"/>
+      <c r="B109" s="217"/>
+      <c r="C109" s="217"/>
+      <c r="D109" s="217"/>
+      <c r="E109" s="217"/>
     </row>
     <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45230,13 +45230,13 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A113" s="214" t="s">
+      <c r="A113" s="217" t="s">
         <v>155</v>
       </c>
-      <c r="B113" s="214"/>
-      <c r="C113" s="214"/>
-      <c r="D113" s="214"/>
-      <c r="E113" s="214"/>
+      <c r="B113" s="217"/>
+      <c r="C113" s="217"/>
+      <c r="D113" s="217"/>
+      <c r="E113" s="217"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="16">
@@ -45317,13 +45317,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A124" s="214" t="s">
+      <c r="A124" s="217" t="s">
         <v>400</v>
       </c>
-      <c r="B124" s="214"/>
-      <c r="C124" s="214"/>
-      <c r="D124" s="214"/>
-      <c r="E124" s="214"/>
+      <c r="B124" s="217"/>
+      <c r="C124" s="217"/>
+      <c r="D124" s="217"/>
+      <c r="E124" s="217"/>
       <c r="L124" s="20"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
@@ -45414,13 +45414,13 @@
       <c r="C133" s="14"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A134" s="214" t="s">
+      <c r="A134" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="B134" s="214"/>
-      <c r="C134" s="214"/>
-      <c r="D134" s="214"/>
-      <c r="E134" s="214"/>
+      <c r="B134" s="217"/>
+      <c r="C134" s="217"/>
+      <c r="D134" s="217"/>
+      <c r="E134" s="217"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="26" t="s">
@@ -45435,25 +45435,25 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="28"/>
-      <c r="B136" s="215" t="s">
+      <c r="B136" s="214" t="s">
         <v>420</v>
       </c>
-      <c r="C136" s="216"/>
-      <c r="D136" s="216"/>
-      <c r="E136" s="217"/>
+      <c r="C136" s="215"/>
+      <c r="D136" s="215"/>
+      <c r="E136" s="216"/>
       <c r="F136" s="27"/>
       <c r="G136" s="27"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="29"/>
-      <c r="B137" s="215" t="s">
+      <c r="B137" s="214" t="s">
         <v>421</v>
       </c>
-      <c r="C137" s="217"/>
-      <c r="D137" s="215" t="s">
+      <c r="C137" s="216"/>
+      <c r="D137" s="214" t="s">
         <v>422</v>
       </c>
-      <c r="E137" s="217"/>
+      <c r="E137" s="216"/>
       <c r="F137" s="27"/>
       <c r="G137" s="27"/>
     </row>
@@ -46000,13 +46000,13 @@
       <c r="G163" s="27"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="214" t="s">
+      <c r="A165" s="217" t="s">
         <v>159</v>
       </c>
-      <c r="B165" s="214"/>
-      <c r="C165" s="214"/>
-      <c r="D165" s="214"/>
-      <c r="E165" s="214"/>
+      <c r="B165" s="217"/>
+      <c r="C165" s="217"/>
+      <c r="D165" s="217"/>
+      <c r="E165" s="217"/>
     </row>
     <row r="166" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="22" t="s">
@@ -46029,10 +46029,10 @@
       <c r="B168" s="45"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="214" t="s">
+      <c r="A169" s="217" t="s">
         <v>408</v>
       </c>
-      <c r="B169" s="214"/>
+      <c r="B169" s="217"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="22" t="s">
@@ -46064,13 +46064,13 @@
       <c r="B173" s="45"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="214" t="s">
+      <c r="A174" s="217" t="s">
         <v>168</v>
       </c>
-      <c r="B174" s="214"/>
-      <c r="C174" s="214"/>
-      <c r="D174" s="214"/>
-      <c r="E174" s="214"/>
+      <c r="B174" s="217"/>
+      <c r="C174" s="217"/>
+      <c r="D174" s="217"/>
+      <c r="E174" s="217"/>
     </row>
     <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="22" t="s">
@@ -46090,13 +46090,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="214" t="s">
+      <c r="A178" s="217" t="s">
         <v>162</v>
       </c>
-      <c r="B178" s="214"/>
-      <c r="C178" s="214"/>
-      <c r="D178" s="214"/>
-      <c r="E178" s="214"/>
+      <c r="B178" s="217"/>
+      <c r="C178" s="217"/>
+      <c r="D178" s="217"/>
+      <c r="E178" s="217"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="24" t="s">
@@ -46124,13 +46124,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="214" t="s">
+      <c r="A183" s="217" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="214"/>
-      <c r="C183" s="214"/>
-      <c r="D183" s="214"/>
-      <c r="E183" s="214"/>
+      <c r="B183" s="217"/>
+      <c r="C183" s="217"/>
+      <c r="D183" s="217"/>
+      <c r="E183" s="217"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="22" t="s">
@@ -46185,13 +46185,13 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" s="214" t="s">
+      <c r="A191" s="217" t="s">
         <v>178</v>
       </c>
-      <c r="B191" s="214"/>
-      <c r="C191" s="214"/>
-      <c r="D191" s="214"/>
-      <c r="E191" s="214"/>
+      <c r="B191" s="217"/>
+      <c r="C191" s="217"/>
+      <c r="D191" s="217"/>
+      <c r="E191" s="217"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="20" t="s">
@@ -46251,6 +46251,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -46265,12 +46271,6 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WebAppData.xlsx
+++ b/WebAppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-saudiarabia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024082B1-B20D-49FD-A813-7F478CFE701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A07C7D-D4BB-48A4-8947-4979F91F7375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5161,9 +5161,6 @@
     <t>Agriculture, Land Use, and Water - Rice Cultivation Measures</t>
   </si>
   <si>
-    <t>Agriculture, Land Use, and Water - Shift to Non -Animal Products</t>
-  </si>
-  <si>
     <t>Agriculture, Land Use, and Water - Water Conservation</t>
   </si>
   <si>
@@ -5191,12 +5188,6 @@
     <t>Buildings and Appliances - Retrofit Existing Buildings</t>
   </si>
   <si>
-    <t>Cross -Sector - Domestic Carbon Pricing</t>
-  </si>
-  <si>
-    <t>Cross -Sector - Fuel Taxes</t>
-  </si>
-  <si>
     <t>District Heat and Hydrogen - Switch District Heat Coal to NG</t>
   </si>
   <si>
@@ -5314,15 +5305,6 @@
     <t>Cross -Sector - Carbon Capture, Use, &amp; Sequestration</t>
   </si>
   <si>
-    <t>Cross -Sector - End Existing Subsidies</t>
-  </si>
-  <si>
-    <t>Cross -Sector - Fuel Price Deregulation</t>
-  </si>
-  <si>
-    <t>Cross -Sector - Shift Hydrogen Production to Electrolysis</t>
-  </si>
-  <si>
     <t>Electricity Supply - Carbon -free Electricity Standard</t>
   </si>
   <si>
@@ -5341,15 +5323,6 @@
     <t>Transportation - Low Carbon Fuel Standard</t>
   </si>
   <si>
-    <t>Cross -Sector - Exempt Non -CO2 Emissions from C Tax</t>
-  </si>
-  <si>
-    <t>Cross -Sector - Exempt Process Emissions from C Tax</t>
-  </si>
-  <si>
-    <t>Cross -Sector - Fixed Energy Prices</t>
-  </si>
-  <si>
     <t>Electricity Supply - Ban New Power Plants</t>
   </si>
   <si>
@@ -5366,6 +5339,33 @@
   </si>
   <si>
     <t>Electricity Supply - Reduce Plant Downtime</t>
+  </si>
+  <si>
+    <t>Agriculture, Land Use, and Water - Shift to Non-Animal Products</t>
+  </si>
+  <si>
+    <t>Cross-Sector - Domestic Carbon Pricing</t>
+  </si>
+  <si>
+    <t>Cross-Sector - Fuel Taxes</t>
+  </si>
+  <si>
+    <t>Cross-Sector - End Existing Subsidies</t>
+  </si>
+  <si>
+    <t>Cross-Sector - Fuel Price Deregulation</t>
+  </si>
+  <si>
+    <t>Cross-Sector - Shift Hydrogen Production to Electrolysis</t>
+  </si>
+  <si>
+    <t>Cross-Sector - Exempt Non -CO2 Emissions from C Tax</t>
+  </si>
+  <si>
+    <t>Cross-Sector - Exempt Process Emissions from C Tax</t>
+  </si>
+  <si>
+    <t>Cross-Sector - Fixed Energy Prices</t>
   </si>
 </sst>
 </file>
@@ -6130,7 +6130,7 @@
     <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6557,6 +6557,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -6566,11 +6569,20 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -10997,8 +11009,8 @@
   <dimension ref="A1:T560"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B446" sqref="B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11027,7 +11039,7 @@
       <c r="A1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="219" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="120" t="s">
@@ -11085,11 +11097,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="103" t="s">
         <v>1431</v>
       </c>
       <c r="C2" s="125" t="s">
@@ -11140,11 +11152,11 @@
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="4" t="s">
         <v>1432</v>
       </c>
       <c r="C3" s="61" t="s">
@@ -11193,11 +11205,11 @@
       </c>
       <c r="T3" s="127"/>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="4" t="s">
         <v>1433</v>
       </c>
       <c r="C4" s="61" t="s">
@@ -11246,12 +11258,12 @@
       </c>
       <c r="T4" s="127"/>
     </row>
-    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B5" s="61" t="s">
-        <v>1434</v>
+      <c r="B5" s="4" t="s">
+        <v>1494</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>757</v>
@@ -11297,12 +11309,12 @@
       </c>
       <c r="T5" s="127"/>
     </row>
-    <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B6" s="125" t="s">
-        <v>1435</v>
+      <c r="B6" s="103" t="s">
+        <v>1434</v>
       </c>
       <c r="C6" s="125" t="s">
         <v>1098</v>
@@ -11348,12 +11360,12 @@
       </c>
       <c r="T6" s="129"/>
     </row>
-    <row r="7" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>1436</v>
+      <c r="B7" s="4" t="s">
+        <v>1435</v>
       </c>
       <c r="C7" s="61" t="s">
         <v>801</v>
@@ -11407,12 +11419,12 @@
       <c r="S7" s="135"/>
       <c r="T7" s="127"/>
     </row>
-    <row r="8" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B8" s="137" t="s">
-        <v>1436</v>
+      <c r="B8" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C8" s="137" t="s">
         <v>801</v>
@@ -11452,12 +11464,12 @@
       <c r="S8" s="141"/>
       <c r="T8" s="140"/>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B9" s="137" t="s">
-        <v>1436</v>
+      <c r="B9" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C9" s="137" t="s">
         <v>801</v>
@@ -11497,12 +11509,12 @@
       <c r="S9" s="141"/>
       <c r="T9" s="140"/>
     </row>
-    <row r="10" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B10" s="137" t="s">
-        <v>1436</v>
+      <c r="B10" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C10" s="137" t="s">
         <v>801</v>
@@ -11556,12 +11568,12 @@
       <c r="S10" s="141"/>
       <c r="T10" s="140"/>
     </row>
-    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B11" s="137" t="s">
-        <v>1436</v>
+      <c r="B11" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C11" s="137" t="s">
         <v>801</v>
@@ -11615,12 +11627,12 @@
       <c r="S11" s="141"/>
       <c r="T11" s="140"/>
     </row>
-    <row r="12" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B12" s="137" t="s">
-        <v>1436</v>
+      <c r="B12" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C12" s="137" t="s">
         <v>801</v>
@@ -11674,12 +11686,12 @@
       <c r="S12" s="141"/>
       <c r="T12" s="140"/>
     </row>
-    <row r="13" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B13" s="137" t="s">
-        <v>1436</v>
+      <c r="B13" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C13" s="137" t="s">
         <v>801</v>
@@ -11719,12 +11731,12 @@
       <c r="S13" s="141"/>
       <c r="T13" s="140"/>
     </row>
-    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B14" s="137" t="s">
-        <v>1436</v>
+      <c r="B14" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C14" s="137" t="s">
         <v>801</v>
@@ -11764,12 +11776,12 @@
       <c r="S14" s="141"/>
       <c r="T14" s="140"/>
     </row>
-    <row r="15" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B15" s="137" t="s">
-        <v>1436</v>
+      <c r="B15" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C15" s="137" t="s">
         <v>801</v>
@@ -11823,12 +11835,12 @@
       <c r="S15" s="141"/>
       <c r="T15" s="140"/>
     </row>
-    <row r="16" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B16" s="137" t="s">
-        <v>1436</v>
+      <c r="B16" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C16" s="137" t="s">
         <v>801</v>
@@ -11882,12 +11894,12 @@
       <c r="S16" s="141"/>
       <c r="T16" s="140"/>
     </row>
-    <row r="17" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B17" s="137" t="s">
-        <v>1436</v>
+      <c r="B17" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C17" s="137" t="s">
         <v>801</v>
@@ -11941,12 +11953,12 @@
       <c r="S17" s="141"/>
       <c r="T17" s="140"/>
     </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B18" s="137" t="s">
-        <v>1436</v>
+      <c r="B18" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C18" s="137" t="s">
         <v>801</v>
@@ -11986,12 +11998,12 @@
       <c r="S18" s="141"/>
       <c r="T18" s="140"/>
     </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B19" s="137" t="s">
-        <v>1436</v>
+      <c r="B19" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C19" s="137" t="s">
         <v>801</v>
@@ -12031,12 +12043,12 @@
       <c r="S19" s="141"/>
       <c r="T19" s="140"/>
     </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B20" s="137" t="s">
-        <v>1436</v>
+      <c r="B20" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C20" s="137" t="s">
         <v>801</v>
@@ -12090,12 +12102,12 @@
       <c r="S20" s="141"/>
       <c r="T20" s="140"/>
     </row>
-    <row r="21" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B21" s="137" t="s">
-        <v>1436</v>
+      <c r="B21" s="5" t="s">
+        <v>1435</v>
       </c>
       <c r="C21" s="137" t="s">
         <v>801</v>
@@ -12149,12 +12161,12 @@
       <c r="S21" s="141"/>
       <c r="T21" s="140"/>
     </row>
-    <row r="22" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B22" s="61" t="s">
-        <v>1437</v>
+      <c r="B22" s="4" t="s">
+        <v>1436</v>
       </c>
       <c r="C22" s="61" t="s">
         <v>306</v>
@@ -12212,12 +12224,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B23" s="137" t="s">
-        <v>1437</v>
+      <c r="B23" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C23" s="137" t="s">
         <v>306</v>
@@ -12275,12 +12287,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B24" s="137" t="s">
-        <v>1437</v>
+      <c r="B24" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C24" s="137" t="s">
         <v>306</v>
@@ -12338,12 +12350,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B25" s="137" t="s">
-        <v>1437</v>
+      <c r="B25" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C25" s="137" t="s">
         <v>306</v>
@@ -12401,12 +12413,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B26" s="137" t="s">
-        <v>1437</v>
+      <c r="B26" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C26" s="137" t="s">
         <v>306</v>
@@ -12464,12 +12476,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B27" s="137" t="s">
-        <v>1437</v>
+      <c r="B27" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C27" s="137" t="s">
         <v>306</v>
@@ -12527,12 +12539,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B28" s="137" t="s">
-        <v>1437</v>
+      <c r="B28" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C28" s="137" t="s">
         <v>306</v>
@@ -12590,12 +12602,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B29" s="137" t="s">
-        <v>1437</v>
+      <c r="B29" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C29" s="137" t="s">
         <v>306</v>
@@ -12653,12 +12665,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B30" s="137" t="s">
-        <v>1437</v>
+      <c r="B30" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C30" s="137" t="s">
         <v>306</v>
@@ -12716,12 +12728,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B31" s="137" t="s">
-        <v>1437</v>
+      <c r="B31" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C31" s="137" t="s">
         <v>306</v>
@@ -12779,12 +12791,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B32" s="137" t="s">
-        <v>1437</v>
+      <c r="B32" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C32" s="137" t="s">
         <v>306</v>
@@ -12842,12 +12854,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B33" s="137" t="s">
-        <v>1437</v>
+      <c r="B33" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C33" s="137" t="s">
         <v>306</v>
@@ -12905,12 +12917,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B34" s="137" t="s">
-        <v>1437</v>
+      <c r="B34" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C34" s="137" t="s">
         <v>306</v>
@@ -12968,12 +12980,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B35" s="137" t="s">
-        <v>1437</v>
+      <c r="B35" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C35" s="137" t="s">
         <v>306</v>
@@ -13031,12 +13043,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B36" s="137" t="s">
-        <v>1437</v>
+      <c r="B36" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C36" s="137" t="s">
         <v>306</v>
@@ -13094,12 +13106,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B37" s="137" t="s">
-        <v>1437</v>
+      <c r="B37" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C37" s="137" t="s">
         <v>306</v>
@@ -13157,12 +13169,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B38" s="137" t="s">
-        <v>1437</v>
+      <c r="B38" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C38" s="137" t="s">
         <v>306</v>
@@ -13220,12 +13232,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:20" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B39" s="137" t="s">
-        <v>1437</v>
+      <c r="B39" s="5" t="s">
+        <v>1436</v>
       </c>
       <c r="C39" s="137" t="s">
         <v>306</v>
@@ -13283,12 +13295,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B40" s="61" t="s">
-        <v>1438</v>
+      <c r="B40" s="4" t="s">
+        <v>1437</v>
       </c>
       <c r="C40" s="61" t="s">
         <v>6</v>
@@ -13336,12 +13348,12 @@
       </c>
       <c r="T40" s="129"/>
     </row>
-    <row r="41" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B41" s="61" t="s">
-        <v>1439</v>
+      <c r="B41" s="4" t="s">
+        <v>1438</v>
       </c>
       <c r="C41" s="61" t="s">
         <v>307</v>
@@ -13391,12 +13403,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B42" s="61" t="s">
-        <v>1440</v>
+      <c r="B42" s="4" t="s">
+        <v>1439</v>
       </c>
       <c r="C42" s="61" t="s">
         <v>266</v>
@@ -13444,12 +13456,12 @@
       </c>
       <c r="T42" s="129"/>
     </row>
-    <row r="43" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B43" s="61" t="s">
-        <v>1441</v>
+      <c r="B43" s="4" t="s">
+        <v>1440</v>
       </c>
       <c r="C43" s="61" t="s">
         <v>114</v>
@@ -13497,12 +13509,12 @@
       </c>
       <c r="T43" s="129"/>
     </row>
-    <row r="44" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B44" s="61" t="s">
-        <v>1442</v>
+      <c r="B44" s="4" t="s">
+        <v>1441</v>
       </c>
       <c r="C44" s="61" t="s">
         <v>5</v>
@@ -13554,12 +13566,12 @@
       </c>
       <c r="T44" s="129"/>
     </row>
-    <row r="45" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B45" s="137" t="s">
-        <v>1442</v>
+      <c r="B45" s="5" t="s">
+        <v>1441</v>
       </c>
       <c r="C45" s="137" t="s">
         <v>5</v>
@@ -13611,12 +13623,12 @@
       </c>
       <c r="T45" s="129"/>
     </row>
-    <row r="46" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B46" s="137" t="s">
-        <v>1442</v>
+      <c r="B46" s="5" t="s">
+        <v>1441</v>
       </c>
       <c r="C46" s="137" t="s">
         <v>5</v>
@@ -13654,12 +13666,12 @@
       <c r="S46" s="132"/>
       <c r="T46" s="129"/>
     </row>
-    <row r="47" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B47" s="137" t="s">
-        <v>1442</v>
+      <c r="B47" s="5" t="s">
+        <v>1441</v>
       </c>
       <c r="C47" s="137" t="s">
         <v>5</v>
@@ -13697,12 +13709,12 @@
       <c r="S47" s="132"/>
       <c r="T47" s="129"/>
     </row>
-    <row r="48" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B48" s="137" t="s">
-        <v>1442</v>
+      <c r="B48" s="5" t="s">
+        <v>1441</v>
       </c>
       <c r="C48" s="137" t="s">
         <v>5</v>
@@ -13754,12 +13766,12 @@
       </c>
       <c r="T48" s="129"/>
     </row>
-    <row r="49" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B49" s="137" t="s">
-        <v>1442</v>
+      <c r="B49" s="5" t="s">
+        <v>1441</v>
       </c>
       <c r="C49" s="137" t="s">
         <v>5</v>
@@ -13797,12 +13809,12 @@
       <c r="S49" s="132"/>
       <c r="T49" s="129"/>
     </row>
-    <row r="50" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B50" s="61" t="s">
-        <v>1443</v>
+      <c r="B50" s="4" t="s">
+        <v>1442</v>
       </c>
       <c r="C50" s="61" t="s">
         <v>780</v>
@@ -13854,12 +13866,12 @@
       </c>
       <c r="T50" s="131"/>
     </row>
-    <row r="51" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B51" s="137" t="s">
-        <v>1443</v>
+      <c r="B51" s="5" t="s">
+        <v>1442</v>
       </c>
       <c r="C51" s="137" t="s">
         <v>780</v>
@@ -13911,12 +13923,12 @@
       </c>
       <c r="T51" s="129"/>
     </row>
-    <row r="52" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B52" s="137" t="s">
-        <v>1443</v>
+      <c r="B52" s="5" t="s">
+        <v>1442</v>
       </c>
       <c r="C52" s="137" t="s">
         <v>780</v>
@@ -13968,12 +13980,12 @@
       </c>
       <c r="T52" s="129"/>
     </row>
-    <row r="53" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B53" s="105" t="s">
-        <v>1444</v>
+      <c r="B53" s="193" t="s">
+        <v>1495</v>
       </c>
       <c r="C53" s="61" t="s">
         <v>725</v>
@@ -14027,12 +14039,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B54" s="146" t="s">
-        <v>1444</v>
+      <c r="B54" s="220" t="s">
+        <v>1495</v>
       </c>
       <c r="C54" s="137" t="s">
         <v>725</v>
@@ -14082,12 +14094,12 @@
       <c r="S54" s="144"/>
       <c r="T54" s="129"/>
     </row>
-    <row r="55" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B55" s="146" t="s">
-        <v>1444</v>
+      <c r="B55" s="220" t="s">
+        <v>1495</v>
       </c>
       <c r="C55" s="137" t="s">
         <v>725</v>
@@ -14137,12 +14149,12 @@
       <c r="S55" s="144"/>
       <c r="T55" s="129"/>
     </row>
-    <row r="56" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B56" s="146" t="s">
-        <v>1444</v>
+      <c r="B56" s="220" t="s">
+        <v>1495</v>
       </c>
       <c r="C56" s="137" t="s">
         <v>725</v>
@@ -14192,12 +14204,12 @@
       <c r="S56" s="144"/>
       <c r="T56" s="129"/>
     </row>
-    <row r="57" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B57" s="146" t="s">
-        <v>1444</v>
+      <c r="B57" s="220" t="s">
+        <v>1495</v>
       </c>
       <c r="C57" s="137" t="s">
         <v>725</v>
@@ -14247,12 +14259,12 @@
       <c r="S57" s="144"/>
       <c r="T57" s="129"/>
     </row>
-    <row r="58" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B58" s="146" t="s">
-        <v>1444</v>
+      <c r="B58" s="220" t="s">
+        <v>1495</v>
       </c>
       <c r="C58" s="137" t="s">
         <v>725</v>
@@ -14288,12 +14300,12 @@
       <c r="S58" s="144"/>
       <c r="T58" s="129"/>
     </row>
-    <row r="59" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B59" s="146" t="s">
-        <v>1444</v>
+      <c r="B59" s="220" t="s">
+        <v>1495</v>
       </c>
       <c r="C59" s="137" t="s">
         <v>725</v>
@@ -14333,8 +14345,8 @@
       <c r="A60" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B60" s="61" t="s">
-        <v>1445</v>
+      <c r="B60" s="4" t="s">
+        <v>1496</v>
       </c>
       <c r="C60" s="61" t="s">
         <v>293</v>
@@ -14390,8 +14402,8 @@
       <c r="A61" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B61" s="148" t="s">
-        <v>1445</v>
+      <c r="B61" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C61" s="148" t="s">
         <v>293</v>
@@ -14447,8 +14459,8 @@
       <c r="A62" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B62" s="148" t="s">
-        <v>1445</v>
+      <c r="B62" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C62" s="148" t="s">
         <v>293</v>
@@ -14504,8 +14516,8 @@
       <c r="A63" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B63" s="148" t="s">
-        <v>1445</v>
+      <c r="B63" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C63" s="148" t="s">
         <v>293</v>
@@ -14547,8 +14559,8 @@
       <c r="A64" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B64" s="148" t="s">
-        <v>1445</v>
+      <c r="B64" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C64" s="148" t="s">
         <v>293</v>
@@ -14590,8 +14602,8 @@
       <c r="A65" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B65" s="148" t="s">
-        <v>1445</v>
+      <c r="B65" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C65" s="148" t="s">
         <v>293</v>
@@ -14647,8 +14659,8 @@
       <c r="A66" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B66" s="148" t="s">
-        <v>1445</v>
+      <c r="B66" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C66" s="148" t="s">
         <v>293</v>
@@ -14704,8 +14716,8 @@
       <c r="A67" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B67" s="148" t="s">
-        <v>1445</v>
+      <c r="B67" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C67" s="148" t="s">
         <v>293</v>
@@ -14747,8 +14759,8 @@
       <c r="A68" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B68" s="148" t="s">
-        <v>1445</v>
+      <c r="B68" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C68" s="148" t="s">
         <v>293</v>
@@ -14790,8 +14802,8 @@
       <c r="A69" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B69" s="148" t="s">
-        <v>1445</v>
+      <c r="B69" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C69" s="148" t="s">
         <v>293</v>
@@ -14831,8 +14843,8 @@
       <c r="A70" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B70" s="148" t="s">
-        <v>1445</v>
+      <c r="B70" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C70" s="148" t="s">
         <v>293</v>
@@ -14874,8 +14886,8 @@
       <c r="A71" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B71" s="148" t="s">
-        <v>1445</v>
+      <c r="B71" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C71" s="148" t="s">
         <v>293</v>
@@ -14915,8 +14927,8 @@
       <c r="A72" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B72" s="148" t="s">
-        <v>1445</v>
+      <c r="B72" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C72" s="148" t="s">
         <v>293</v>
@@ -14956,8 +14968,8 @@
       <c r="A73" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B73" s="148" t="s">
-        <v>1445</v>
+      <c r="B73" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C73" s="148" t="s">
         <v>293</v>
@@ -14997,8 +15009,8 @@
       <c r="A74" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B74" s="148" t="s">
-        <v>1445</v>
+      <c r="B74" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C74" s="148" t="s">
         <v>293</v>
@@ -15038,8 +15050,8 @@
       <c r="A75" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B75" s="148" t="s">
-        <v>1445</v>
+      <c r="B75" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C75" s="148" t="s">
         <v>293</v>
@@ -15079,8 +15091,8 @@
       <c r="A76" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B76" s="148" t="s">
-        <v>1445</v>
+      <c r="B76" s="221" t="s">
+        <v>1496</v>
       </c>
       <c r="C76" s="148" t="s">
         <v>293</v>
@@ -15116,12 +15128,12 @@
       <c r="S76" s="135"/>
       <c r="T76" s="127"/>
     </row>
-    <row r="77" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B77" s="150" t="s">
-        <v>1446</v>
+      <c r="B77" s="3" t="s">
+        <v>1443</v>
       </c>
       <c r="C77" s="150" t="s">
         <v>470</v>
@@ -15169,12 +15181,12 @@
       </c>
       <c r="T77" s="131"/>
     </row>
-    <row r="78" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A78" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B78" s="150" t="s">
-        <v>1447</v>
+      <c r="B78" s="3" t="s">
+        <v>1444</v>
       </c>
       <c r="C78" s="150" t="s">
         <v>292</v>
@@ -15222,12 +15234,12 @@
       </c>
       <c r="T78" s="131"/>
     </row>
-    <row r="79" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B79" s="61" t="s">
-        <v>1448</v>
+      <c r="B79" s="4" t="s">
+        <v>1445</v>
       </c>
       <c r="C79" s="61" t="s">
         <v>10</v>
@@ -15275,12 +15287,12 @@
       </c>
       <c r="T79" s="127"/>
     </row>
-    <row r="80" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B80" s="61" t="s">
-        <v>1449</v>
+      <c r="B80" s="4" t="s">
+        <v>1446</v>
       </c>
       <c r="C80" s="61" t="s">
         <v>325</v>
@@ -15330,12 +15342,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B81" s="61" t="s">
-        <v>1450</v>
+      <c r="B81" s="4" t="s">
+        <v>1447</v>
       </c>
       <c r="C81" s="61" t="s">
         <v>280</v>
@@ -15385,12 +15397,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B82" s="125" t="s">
-        <v>1451</v>
+      <c r="B82" s="103" t="s">
+        <v>1448</v>
       </c>
       <c r="C82" s="137" t="s">
         <v>116</v>
@@ -15434,12 +15446,12 @@
       <c r="S82" s="132"/>
       <c r="T82" s="129"/>
     </row>
-    <row r="83" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B83" s="125" t="s">
-        <v>1451</v>
+      <c r="B83" s="103" t="s">
+        <v>1448</v>
       </c>
       <c r="C83" s="137" t="s">
         <v>116</v>
@@ -15483,12 +15495,12 @@
       <c r="S83" s="132"/>
       <c r="T83" s="129"/>
     </row>
-    <row r="84" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B84" s="125" t="s">
-        <v>1451</v>
+      <c r="B84" s="103" t="s">
+        <v>1448</v>
       </c>
       <c r="C84" s="137" t="s">
         <v>116</v>
@@ -15532,12 +15544,12 @@
       <c r="S84" s="132"/>
       <c r="T84" s="129"/>
     </row>
-    <row r="85" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B85" s="125" t="s">
-        <v>1451</v>
+      <c r="B85" s="103" t="s">
+        <v>1448</v>
       </c>
       <c r="C85" s="137" t="s">
         <v>116</v>
@@ -15581,12 +15593,12 @@
       <c r="S85" s="132"/>
       <c r="T85" s="129"/>
     </row>
-    <row r="86" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B86" s="61" t="s">
-        <v>1452</v>
+      <c r="B86" s="4" t="s">
+        <v>1449</v>
       </c>
       <c r="C86" s="61" t="s">
         <v>372</v>
@@ -15620,12 +15632,12 @@
       <c r="S86" s="132"/>
       <c r="T86" s="129"/>
     </row>
-    <row r="87" spans="1:20" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:20" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B87" s="61" t="s">
-        <v>1453</v>
+      <c r="B87" s="4" t="s">
+        <v>1450</v>
       </c>
       <c r="C87" s="61" t="s">
         <v>535</v>
@@ -15673,12 +15685,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B88" s="154" t="s">
-        <v>1454</v>
+      <c r="B88" s="203" t="s">
+        <v>1451</v>
       </c>
       <c r="C88" s="154" t="s">
         <v>619</v>
@@ -15732,8 +15744,8 @@
       <c r="A89" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B89" s="155" t="s">
-        <v>1454</v>
+      <c r="B89" s="222" t="s">
+        <v>1451</v>
       </c>
       <c r="C89" s="155" t="s">
         <v>619</v>
@@ -15787,8 +15799,8 @@
       <c r="A90" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B90" s="155" t="s">
-        <v>1454</v>
+      <c r="B90" s="222" t="s">
+        <v>1451</v>
       </c>
       <c r="C90" s="155" t="s">
         <v>619</v>
@@ -15842,8 +15854,8 @@
       <c r="A91" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B91" s="150" t="s">
-        <v>1455</v>
+      <c r="B91" s="3" t="s">
+        <v>1452</v>
       </c>
       <c r="C91" s="150" t="s">
         <v>281</v>
@@ -15895,8 +15907,8 @@
       <c r="A92" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B92" s="61" t="s">
-        <v>1456</v>
+      <c r="B92" s="4" t="s">
+        <v>1453</v>
       </c>
       <c r="C92" s="61" t="s">
         <v>283</v>
@@ -15944,12 +15956,12 @@
       </c>
       <c r="T92" s="129"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A93" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B93" s="61" t="s">
-        <v>1457</v>
+      <c r="B93" s="4" t="s">
+        <v>1454</v>
       </c>
       <c r="C93" s="61" t="s">
         <v>45</v>
@@ -15997,12 +16009,12 @@
       </c>
       <c r="T93" s="129"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B94" s="61" t="s">
-        <v>1458</v>
+      <c r="B94" s="4" t="s">
+        <v>1455</v>
       </c>
       <c r="C94" s="61" t="s">
         <v>285</v>
@@ -16050,12 +16062,12 @@
       </c>
       <c r="T94" s="129"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B95" s="61" t="s">
-        <v>1459</v>
+      <c r="B95" s="4" t="s">
+        <v>1456</v>
       </c>
       <c r="C95" s="61" t="s">
         <v>284</v>
@@ -16109,12 +16121,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A96" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B96" s="137" t="s">
-        <v>1459</v>
+      <c r="B96" s="5" t="s">
+        <v>1456</v>
       </c>
       <c r="C96" s="137" t="s">
         <v>284</v>
@@ -16168,12 +16180,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B97" s="137" t="s">
-        <v>1459</v>
+      <c r="B97" s="5" t="s">
+        <v>1456</v>
       </c>
       <c r="C97" s="137" t="s">
         <v>284</v>
@@ -16227,12 +16239,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B98" s="137" t="s">
-        <v>1459</v>
+      <c r="B98" s="5" t="s">
+        <v>1456</v>
       </c>
       <c r="C98" s="137" t="s">
         <v>284</v>
@@ -16286,12 +16298,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B99" s="137" t="s">
-        <v>1459</v>
+      <c r="B99" s="5" t="s">
+        <v>1456</v>
       </c>
       <c r="C99" s="137" t="s">
         <v>284</v>
@@ -16345,12 +16357,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A100" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B100" s="137" t="s">
-        <v>1459</v>
+      <c r="B100" s="5" t="s">
+        <v>1456</v>
       </c>
       <c r="C100" s="137" t="s">
         <v>284</v>
@@ -16404,12 +16416,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="101" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B101" s="137" t="s">
-        <v>1459</v>
+      <c r="B101" s="5" t="s">
+        <v>1456</v>
       </c>
       <c r="C101" s="137" t="s">
         <v>284</v>
@@ -16463,12 +16475,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A102" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B102" s="61" t="s">
-        <v>1460</v>
+      <c r="B102" s="4" t="s">
+        <v>1457</v>
       </c>
       <c r="C102" s="61" t="s">
         <v>750</v>
@@ -16518,12 +16530,12 @@
       </c>
       <c r="T102" s="129"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A103" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B103" s="137" t="s">
-        <v>1460</v>
+      <c r="B103" s="5" t="s">
+        <v>1457</v>
       </c>
       <c r="C103" s="137" t="s">
         <v>750</v>
@@ -16573,12 +16585,12 @@
       </c>
       <c r="T103" s="129"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B104" s="137" t="s">
-        <v>1460</v>
+      <c r="B104" s="5" t="s">
+        <v>1457</v>
       </c>
       <c r="C104" s="137" t="s">
         <v>750</v>
@@ -16626,12 +16638,12 @@
       <c r="S104" s="135"/>
       <c r="T104" s="129"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B105" s="137" t="s">
-        <v>1460</v>
+      <c r="B105" s="5" t="s">
+        <v>1457</v>
       </c>
       <c r="C105" s="137" t="s">
         <v>750</v>
@@ -16685,8 +16697,8 @@
       <c r="A106" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B106" s="61" t="s">
-        <v>1461</v>
+      <c r="B106" s="4" t="s">
+        <v>1458</v>
       </c>
       <c r="C106" s="61" t="s">
         <v>286</v>
@@ -16738,8 +16750,8 @@
       <c r="A107" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B107" s="61" t="s">
-        <v>1462</v>
+      <c r="B107" s="4" t="s">
+        <v>1459</v>
       </c>
       <c r="C107" s="61" t="s">
         <v>287</v>
@@ -16791,8 +16803,8 @@
       <c r="A108" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B108" s="61" t="s">
-        <v>1463</v>
+      <c r="B108" s="4" t="s">
+        <v>1460</v>
       </c>
       <c r="C108" s="61" t="s">
         <v>532</v>
@@ -16840,12 +16852,12 @@
       </c>
       <c r="T108" s="127"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B109" s="61" t="s">
-        <v>1464</v>
+      <c r="B109" s="4" t="s">
+        <v>1461</v>
       </c>
       <c r="C109" s="61" t="s">
         <v>805</v>
@@ -16895,12 +16907,12 @@
       </c>
       <c r="T109" s="127"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B110" s="137" t="s">
-        <v>1464</v>
+      <c r="B110" s="5" t="s">
+        <v>1461</v>
       </c>
       <c r="C110" s="137" t="s">
         <v>805</v>
@@ -16950,12 +16962,12 @@
       </c>
       <c r="T110" s="127"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B111" s="137" t="s">
-        <v>1464</v>
+      <c r="B111" s="5" t="s">
+        <v>1461</v>
       </c>
       <c r="C111" s="137" t="s">
         <v>805</v>
@@ -17005,12 +17017,12 @@
       </c>
       <c r="T111" s="127"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B112" s="137" t="s">
-        <v>1464</v>
+      <c r="B112" s="5" t="s">
+        <v>1461</v>
       </c>
       <c r="C112" s="137" t="s">
         <v>805</v>
@@ -17060,12 +17072,12 @@
       </c>
       <c r="T112" s="127"/>
     </row>
-    <row r="113" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B113" s="137" t="s">
-        <v>1464</v>
+      <c r="B113" s="5" t="s">
+        <v>1461</v>
       </c>
       <c r="C113" s="137" t="s">
         <v>805</v>
@@ -17115,12 +17127,12 @@
       </c>
       <c r="T113" s="127"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B114" s="137" t="s">
-        <v>1464</v>
+      <c r="B114" s="5" t="s">
+        <v>1461</v>
       </c>
       <c r="C114" s="137" t="s">
         <v>805</v>
@@ -17158,12 +17170,12 @@
       </c>
       <c r="T114" s="127"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B115" s="137" t="s">
-        <v>1464</v>
+      <c r="B115" s="5" t="s">
+        <v>1461</v>
       </c>
       <c r="C115" s="137" t="s">
         <v>805</v>
@@ -17213,12 +17225,12 @@
       </c>
       <c r="T115" s="127"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B116" s="137" t="s">
-        <v>1464</v>
+      <c r="B116" s="5" t="s">
+        <v>1461</v>
       </c>
       <c r="C116" s="137" t="s">
         <v>805</v>
@@ -17268,12 +17280,12 @@
       </c>
       <c r="T116" s="127"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B117" s="137" t="s">
-        <v>1464</v>
+      <c r="B117" s="5" t="s">
+        <v>1461</v>
       </c>
       <c r="C117" s="137" t="s">
         <v>805</v>
@@ -17327,8 +17339,8 @@
       <c r="A118" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B118" s="61" t="s">
-        <v>1465</v>
+      <c r="B118" s="4" t="s">
+        <v>1462</v>
       </c>
       <c r="C118" s="61" t="s">
         <v>288</v>
@@ -17376,12 +17388,12 @@
       </c>
       <c r="T118" s="127"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B119" s="61" t="s">
-        <v>1466</v>
+      <c r="B119" s="4" t="s">
+        <v>1463</v>
       </c>
       <c r="C119" s="61" t="s">
         <v>294</v>
@@ -17433,12 +17445,12 @@
       </c>
       <c r="T119" s="127"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B120" s="137" t="s">
-        <v>1466</v>
+      <c r="B120" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C120" s="137" t="s">
         <v>294</v>
@@ -17490,12 +17502,12 @@
       </c>
       <c r="T120" s="127"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B121" s="137" t="s">
-        <v>1466</v>
+      <c r="B121" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C121" s="137" t="s">
         <v>294</v>
@@ -17547,12 +17559,12 @@
       </c>
       <c r="T121" s="127"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B122" s="137" t="s">
-        <v>1466</v>
+      <c r="B122" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C122" s="137" t="s">
         <v>294</v>
@@ -17604,12 +17616,12 @@
       </c>
       <c r="T122" s="127"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B123" s="137" t="s">
-        <v>1466</v>
+      <c r="B123" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C123" s="137" t="s">
         <v>294</v>
@@ -17661,12 +17673,12 @@
       </c>
       <c r="T123" s="127"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A124" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B124" s="137" t="s">
-        <v>1466</v>
+      <c r="B124" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C124" s="137" t="s">
         <v>294</v>
@@ -17718,12 +17730,12 @@
       </c>
       <c r="T124" s="127"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B125" s="137" t="s">
-        <v>1466</v>
+      <c r="B125" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C125" s="61" t="s">
         <v>295</v>
@@ -17773,12 +17785,12 @@
       </c>
       <c r="T125" s="127"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B126" s="137" t="s">
-        <v>1466</v>
+      <c r="B126" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C126" s="137" t="s">
         <v>295</v>
@@ -17824,12 +17836,12 @@
       <c r="S126" s="135"/>
       <c r="T126" s="127"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A127" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B127" s="137" t="s">
-        <v>1466</v>
+      <c r="B127" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C127" s="137" t="s">
         <v>295</v>
@@ -17875,12 +17887,12 @@
       <c r="S127" s="135"/>
       <c r="T127" s="127"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B128" s="137" t="s">
-        <v>1466</v>
+      <c r="B128" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C128" s="137" t="s">
         <v>295</v>
@@ -17916,12 +17928,12 @@
       <c r="S128" s="135"/>
       <c r="T128" s="127"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B129" s="137" t="s">
-        <v>1466</v>
+      <c r="B129" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C129" s="61" t="s">
         <v>296</v>
@@ -17973,12 +17985,12 @@
       </c>
       <c r="T129" s="127"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B130" s="137" t="s">
-        <v>1466</v>
+      <c r="B130" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C130" s="137" t="s">
         <v>296</v>
@@ -18030,12 +18042,12 @@
       </c>
       <c r="T130" s="127"/>
     </row>
-    <row r="131" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B131" s="137" t="s">
-        <v>1466</v>
+      <c r="B131" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C131" s="137" t="s">
         <v>296</v>
@@ -18087,12 +18099,12 @@
       </c>
       <c r="T131" s="127"/>
     </row>
-    <row r="132" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B132" s="137" t="s">
-        <v>1466</v>
+      <c r="B132" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C132" s="137" t="s">
         <v>296</v>
@@ -18144,12 +18156,12 @@
       </c>
       <c r="T132" s="127"/>
     </row>
-    <row r="133" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B133" s="137" t="s">
-        <v>1466</v>
+      <c r="B133" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C133" s="137" t="s">
         <v>296</v>
@@ -18201,12 +18213,12 @@
       </c>
       <c r="T133" s="127"/>
     </row>
-    <row r="134" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B134" s="137" t="s">
-        <v>1466</v>
+      <c r="B134" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C134" s="137" t="s">
         <v>296</v>
@@ -18258,12 +18270,12 @@
       </c>
       <c r="T134" s="127"/>
     </row>
-    <row r="135" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B135" s="137" t="s">
-        <v>1466</v>
+      <c r="B135" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C135" s="137" t="s">
         <v>296</v>
@@ -18315,12 +18327,12 @@
       </c>
       <c r="T135" s="127"/>
     </row>
-    <row r="136" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B136" s="137" t="s">
-        <v>1466</v>
+      <c r="B136" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C136" s="137" t="s">
         <v>296</v>
@@ -18372,12 +18384,12 @@
       </c>
       <c r="T136" s="127"/>
     </row>
-    <row r="137" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A137" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B137" s="137" t="s">
-        <v>1466</v>
+      <c r="B137" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C137" s="137" t="s">
         <v>296</v>
@@ -18429,12 +18441,12 @@
       </c>
       <c r="T137" s="127"/>
     </row>
-    <row r="138" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B138" s="137" t="s">
-        <v>1466</v>
+      <c r="B138" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C138" s="137" t="s">
         <v>296</v>
@@ -18486,12 +18498,12 @@
       </c>
       <c r="T138" s="127"/>
     </row>
-    <row r="139" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B139" s="137" t="s">
-        <v>1466</v>
+      <c r="B139" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C139" s="137" t="s">
         <v>296</v>
@@ -18543,12 +18555,12 @@
       </c>
       <c r="T139" s="127"/>
     </row>
-    <row r="140" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B140" s="137" t="s">
-        <v>1466</v>
+      <c r="B140" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C140" s="61" t="s">
         <v>297</v>
@@ -18600,12 +18612,12 @@
       </c>
       <c r="T140" s="127"/>
     </row>
-    <row r="141" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B141" s="137" t="s">
-        <v>1466</v>
+      <c r="B141" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C141" s="137" t="s">
         <v>297</v>
@@ -18657,12 +18669,12 @@
       </c>
       <c r="T141" s="127"/>
     </row>
-    <row r="142" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B142" s="137" t="s">
-        <v>1466</v>
+      <c r="B142" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C142" s="137" t="s">
         <v>297</v>
@@ -18714,12 +18726,12 @@
       </c>
       <c r="T142" s="127"/>
     </row>
-    <row r="143" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A143" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B143" s="137" t="s">
-        <v>1466</v>
+      <c r="B143" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C143" s="137" t="s">
         <v>297</v>
@@ -18771,12 +18783,12 @@
       </c>
       <c r="T143" s="127"/>
     </row>
-    <row r="144" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B144" s="137" t="s">
-        <v>1466</v>
+      <c r="B144" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C144" s="137" t="s">
         <v>297</v>
@@ -18828,12 +18840,12 @@
       </c>
       <c r="T144" s="127"/>
     </row>
-    <row r="145" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B145" s="137" t="s">
-        <v>1466</v>
+      <c r="B145" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C145" s="137" t="s">
         <v>297</v>
@@ -18885,12 +18897,12 @@
       </c>
       <c r="T145" s="127"/>
     </row>
-    <row r="146" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B146" s="137" t="s">
-        <v>1466</v>
+      <c r="B146" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C146" s="137" t="s">
         <v>297</v>
@@ -18942,12 +18954,12 @@
       </c>
       <c r="T146" s="127"/>
     </row>
-    <row r="147" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B147" s="137" t="s">
-        <v>1466</v>
+      <c r="B147" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C147" s="137" t="s">
         <v>297</v>
@@ -18999,12 +19011,12 @@
       </c>
       <c r="T147" s="127"/>
     </row>
-    <row r="148" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B148" s="137" t="s">
-        <v>1466</v>
+      <c r="B148" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C148" s="150" t="s">
         <v>298</v>
@@ -19056,12 +19068,12 @@
       </c>
       <c r="T148" s="127"/>
     </row>
-    <row r="149" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A149" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B149" s="137" t="s">
-        <v>1466</v>
+      <c r="B149" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C149" s="137" t="s">
         <v>298</v>
@@ -19113,12 +19125,12 @@
       </c>
       <c r="T149" s="127"/>
     </row>
-    <row r="150" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A150" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B150" s="137" t="s">
-        <v>1466</v>
+      <c r="B150" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C150" s="137" t="s">
         <v>298</v>
@@ -19170,12 +19182,12 @@
       </c>
       <c r="T150" s="127"/>
     </row>
-    <row r="151" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B151" s="137" t="s">
-        <v>1466</v>
+      <c r="B151" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C151" s="137" t="s">
         <v>298</v>
@@ -19227,12 +19239,12 @@
       </c>
       <c r="T151" s="127"/>
     </row>
-    <row r="152" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B152" s="137" t="s">
-        <v>1466</v>
+      <c r="B152" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C152" s="137" t="s">
         <v>298</v>
@@ -19284,12 +19296,12 @@
       </c>
       <c r="T152" s="127"/>
     </row>
-    <row r="153" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A153" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B153" s="137" t="s">
-        <v>1466</v>
+      <c r="B153" s="5" t="s">
+        <v>1463</v>
       </c>
       <c r="C153" s="137" t="s">
         <v>298</v>
@@ -19341,12 +19353,12 @@
       </c>
       <c r="T153" s="127"/>
     </row>
-    <row r="154" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A154" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B154" s="61" t="s">
-        <v>1467</v>
+      <c r="B154" s="4" t="s">
+        <v>1464</v>
       </c>
       <c r="C154" s="61" t="s">
         <v>299</v>
@@ -19398,12 +19410,12 @@
       </c>
       <c r="T154" s="127"/>
     </row>
-    <row r="155" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B155" s="137" t="s">
-        <v>1467</v>
+      <c r="B155" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C155" s="137" t="s">
         <v>299</v>
@@ -19455,12 +19467,12 @@
       </c>
       <c r="T155" s="127"/>
     </row>
-    <row r="156" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B156" s="137" t="s">
-        <v>1467</v>
+      <c r="B156" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C156" s="137" t="s">
         <v>299</v>
@@ -19496,12 +19508,12 @@
       <c r="S156" s="135"/>
       <c r="T156" s="127"/>
     </row>
-    <row r="157" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B157" s="137" t="s">
-        <v>1467</v>
+      <c r="B157" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C157" s="137" t="s">
         <v>299</v>
@@ -19553,12 +19565,12 @@
       </c>
       <c r="T157" s="127"/>
     </row>
-    <row r="158" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B158" s="137" t="s">
-        <v>1467</v>
+      <c r="B158" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C158" s="137" t="s">
         <v>299</v>
@@ -19610,12 +19622,12 @@
       </c>
       <c r="T158" s="127"/>
     </row>
-    <row r="159" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A159" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B159" s="137" t="s">
-        <v>1467</v>
+      <c r="B159" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C159" s="137" t="s">
         <v>299</v>
@@ -19667,12 +19679,12 @@
       </c>
       <c r="T159" s="127"/>
     </row>
-    <row r="160" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B160" s="137" t="s">
-        <v>1467</v>
+      <c r="B160" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C160" s="61" t="s">
         <v>300</v>
@@ -19722,12 +19734,12 @@
       </c>
       <c r="T160" s="127"/>
     </row>
-    <row r="161" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B161" s="137" t="s">
-        <v>1467</v>
+      <c r="B161" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C161" s="61" t="s">
         <v>301</v>
@@ -19779,12 +19791,12 @@
       </c>
       <c r="T161" s="127"/>
     </row>
-    <row r="162" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B162" s="137" t="s">
-        <v>1467</v>
+      <c r="B162" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C162" s="137" t="s">
         <v>301</v>
@@ -19836,12 +19848,12 @@
       </c>
       <c r="T162" s="127"/>
     </row>
-    <row r="163" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B163" s="137" t="s">
-        <v>1467</v>
+      <c r="B163" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C163" s="137" t="s">
         <v>301</v>
@@ -19893,12 +19905,12 @@
       </c>
       <c r="T163" s="127"/>
     </row>
-    <row r="164" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B164" s="137" t="s">
-        <v>1467</v>
+      <c r="B164" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C164" s="137" t="s">
         <v>301</v>
@@ -19936,12 +19948,12 @@
       <c r="S164" s="135"/>
       <c r="T164" s="127"/>
     </row>
-    <row r="165" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A165" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B165" s="137" t="s">
-        <v>1467</v>
+      <c r="B165" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C165" s="137" t="s">
         <v>301</v>
@@ -19979,12 +19991,12 @@
       <c r="S165" s="135"/>
       <c r="T165" s="127"/>
     </row>
-    <row r="166" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B166" s="137" t="s">
-        <v>1467</v>
+      <c r="B166" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C166" s="137" t="s">
         <v>301</v>
@@ -20022,12 +20034,12 @@
       <c r="S166" s="135"/>
       <c r="T166" s="127"/>
     </row>
-    <row r="167" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A167" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B167" s="137" t="s">
-        <v>1467</v>
+      <c r="B167" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C167" s="137" t="s">
         <v>301</v>
@@ -20065,12 +20077,12 @@
       <c r="S167" s="135"/>
       <c r="T167" s="127"/>
     </row>
-    <row r="168" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B168" s="137" t="s">
-        <v>1467</v>
+      <c r="B168" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C168" s="137" t="s">
         <v>301</v>
@@ -20122,12 +20134,12 @@
       </c>
       <c r="T168" s="127"/>
     </row>
-    <row r="169" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B169" s="137" t="s">
-        <v>1467</v>
+      <c r="B169" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C169" s="137" t="s">
         <v>301</v>
@@ -20179,12 +20191,12 @@
       </c>
       <c r="T169" s="127"/>
     </row>
-    <row r="170" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A170" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B170" s="137" t="s">
-        <v>1467</v>
+      <c r="B170" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C170" s="137" t="s">
         <v>301</v>
@@ -20236,12 +20248,12 @@
       </c>
       <c r="T170" s="127"/>
     </row>
-    <row r="171" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B171" s="137" t="s">
-        <v>1467</v>
+      <c r="B171" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C171" s="137" t="s">
         <v>301</v>
@@ -20285,12 +20297,12 @@
       <c r="S171" s="135"/>
       <c r="T171" s="127"/>
     </row>
-    <row r="172" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B172" s="146" t="s">
-        <v>1467</v>
+      <c r="B172" s="220" t="s">
+        <v>1464</v>
       </c>
       <c r="C172" s="146" t="s">
         <v>301</v>
@@ -20342,12 +20354,12 @@
       </c>
       <c r="T172" s="127"/>
     </row>
-    <row r="173" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B173" s="146" t="s">
-        <v>1467</v>
+      <c r="B173" s="220" t="s">
+        <v>1464</v>
       </c>
       <c r="C173" s="146" t="s">
         <v>301</v>
@@ -20399,12 +20411,12 @@
       </c>
       <c r="T173" s="127"/>
     </row>
-    <row r="174" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B174" s="137" t="s">
-        <v>1467</v>
+      <c r="B174" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C174" s="137" t="s">
         <v>301</v>
@@ -20440,12 +20452,12 @@
       <c r="S174" s="135"/>
       <c r="T174" s="127"/>
     </row>
-    <row r="175" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B175" s="137" t="s">
-        <v>1467</v>
+      <c r="B175" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C175" s="61" t="s">
         <v>302</v>
@@ -20497,12 +20509,12 @@
       </c>
       <c r="T175" s="127"/>
     </row>
-    <row r="176" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A176" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B176" s="137" t="s">
-        <v>1467</v>
+      <c r="B176" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C176" s="137" t="s">
         <v>302</v>
@@ -20554,12 +20566,12 @@
       </c>
       <c r="T176" s="127"/>
     </row>
-    <row r="177" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B177" s="137" t="s">
-        <v>1467</v>
+      <c r="B177" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C177" s="137" t="s">
         <v>302</v>
@@ -20611,12 +20623,12 @@
       </c>
       <c r="T177" s="127"/>
     </row>
-    <row r="178" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B178" s="137" t="s">
-        <v>1467</v>
+      <c r="B178" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C178" s="137" t="s">
         <v>302</v>
@@ -20668,12 +20680,12 @@
       </c>
       <c r="T178" s="127"/>
     </row>
-    <row r="179" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B179" s="137" t="s">
-        <v>1467</v>
+      <c r="B179" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C179" s="137" t="s">
         <v>302</v>
@@ -20725,12 +20737,12 @@
       </c>
       <c r="T179" s="127"/>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B180" s="137" t="s">
-        <v>1467</v>
+      <c r="B180" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C180" s="137" t="s">
         <v>302</v>
@@ -20782,12 +20794,12 @@
       </c>
       <c r="T180" s="127"/>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B181" s="137" t="s">
-        <v>1467</v>
+      <c r="B181" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C181" s="137" t="s">
         <v>302</v>
@@ -20839,12 +20851,12 @@
       </c>
       <c r="T181" s="127"/>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B182" s="137" t="s">
-        <v>1467</v>
+      <c r="B182" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C182" s="137" t="s">
         <v>302</v>
@@ -20896,12 +20908,12 @@
       </c>
       <c r="T182" s="127"/>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B183" s="137" t="s">
-        <v>1467</v>
+      <c r="B183" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C183" s="61" t="s">
         <v>303</v>
@@ -20953,12 +20965,12 @@
       </c>
       <c r="T183" s="127"/>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A184" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B184" s="137" t="s">
-        <v>1467</v>
+      <c r="B184" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C184" s="137" t="s">
         <v>303</v>
@@ -21010,12 +21022,12 @@
       </c>
       <c r="T184" s="127"/>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B185" s="137" t="s">
-        <v>1467</v>
+      <c r="B185" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C185" s="137" t="s">
         <v>303</v>
@@ -21067,12 +21079,12 @@
       </c>
       <c r="T185" s="127"/>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B186" s="137" t="s">
-        <v>1467</v>
+      <c r="B186" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C186" s="137" t="s">
         <v>303</v>
@@ -21124,12 +21136,12 @@
       </c>
       <c r="T186" s="127"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B187" s="137" t="s">
-        <v>1467</v>
+      <c r="B187" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C187" s="137" t="s">
         <v>303</v>
@@ -21181,12 +21193,12 @@
       </c>
       <c r="T187" s="127"/>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A188" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B188" s="137" t="s">
-        <v>1467</v>
+      <c r="B188" s="5" t="s">
+        <v>1464</v>
       </c>
       <c r="C188" s="137" t="s">
         <v>303</v>
@@ -21238,12 +21250,12 @@
       </c>
       <c r="T188" s="127"/>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B189" s="150" t="s">
-        <v>1468</v>
+      <c r="B189" s="3" t="s">
+        <v>1465</v>
       </c>
       <c r="C189" s="150" t="s">
         <v>681</v>
@@ -21297,12 +21309,12 @@
       <c r="S189" s="163"/>
       <c r="T189" s="150"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B190" s="137" t="s">
-        <v>1468</v>
+      <c r="B190" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C190" s="137" t="s">
         <v>681</v>
@@ -21356,12 +21368,12 @@
       <c r="S190" s="163"/>
       <c r="T190" s="150"/>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A191" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B191" s="137" t="s">
-        <v>1468</v>
+      <c r="B191" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C191" s="137" t="s">
         <v>681</v>
@@ -21415,12 +21427,12 @@
       <c r="S191" s="163"/>
       <c r="T191" s="150"/>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A192" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B192" s="137" t="s">
-        <v>1468</v>
+      <c r="B192" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C192" s="137" t="s">
         <v>681</v>
@@ -21474,12 +21486,12 @@
       <c r="S192" s="163"/>
       <c r="T192" s="150"/>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B193" s="137" t="s">
-        <v>1468</v>
+      <c r="B193" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C193" s="137" t="s">
         <v>681</v>
@@ -21533,12 +21545,12 @@
       <c r="S193" s="163"/>
       <c r="T193" s="150"/>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B194" s="137" t="s">
-        <v>1468</v>
+      <c r="B194" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C194" s="137" t="s">
         <v>681</v>
@@ -21592,12 +21604,12 @@
       <c r="S194" s="163"/>
       <c r="T194" s="150"/>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B195" s="137" t="s">
-        <v>1468</v>
+      <c r="B195" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C195" s="137" t="s">
         <v>681</v>
@@ -21651,12 +21663,12 @@
       <c r="S195" s="163"/>
       <c r="T195" s="150"/>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B196" s="137" t="s">
-        <v>1468</v>
+      <c r="B196" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C196" s="137" t="s">
         <v>681</v>
@@ -21710,12 +21722,12 @@
       <c r="S196" s="163"/>
       <c r="T196" s="150"/>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A197" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B197" s="137" t="s">
-        <v>1468</v>
+      <c r="B197" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C197" s="137" t="s">
         <v>681</v>
@@ -21755,12 +21767,12 @@
       <c r="S197" s="163"/>
       <c r="T197" s="150"/>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B198" s="137" t="s">
-        <v>1468</v>
+      <c r="B198" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C198" s="137" t="s">
         <v>681</v>
@@ -21800,12 +21812,12 @@
       <c r="S198" s="163"/>
       <c r="T198" s="150"/>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B199" s="137" t="s">
-        <v>1468</v>
+      <c r="B199" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C199" s="137" t="s">
         <v>681</v>
@@ -21859,12 +21871,12 @@
       <c r="S199" s="163"/>
       <c r="T199" s="150"/>
     </row>
-    <row r="200" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A200" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B200" s="137" t="s">
-        <v>1468</v>
+      <c r="B200" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C200" s="137" t="s">
         <v>681</v>
@@ -21918,12 +21930,12 @@
       <c r="S200" s="163"/>
       <c r="T200" s="150"/>
     </row>
-    <row r="201" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B201" s="137" t="s">
-        <v>1468</v>
+      <c r="B201" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C201" s="137" t="s">
         <v>681</v>
@@ -21977,12 +21989,12 @@
       <c r="S201" s="163"/>
       <c r="T201" s="150"/>
     </row>
-    <row r="202" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B202" s="137" t="s">
-        <v>1468</v>
+      <c r="B202" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C202" s="137" t="s">
         <v>681</v>
@@ -22036,12 +22048,12 @@
       <c r="S202" s="163"/>
       <c r="T202" s="150"/>
     </row>
-    <row r="203" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B203" s="137" t="s">
-        <v>1468</v>
+      <c r="B203" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C203" s="137" t="s">
         <v>681</v>
@@ -22095,12 +22107,12 @@
       <c r="S203" s="163"/>
       <c r="T203" s="150"/>
     </row>
-    <row r="204" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B204" s="137" t="s">
-        <v>1468</v>
+      <c r="B204" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C204" s="137" t="s">
         <v>681</v>
@@ -22154,12 +22166,12 @@
       <c r="S204" s="163"/>
       <c r="T204" s="150"/>
     </row>
-    <row r="205" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A205" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B205" s="137" t="s">
-        <v>1468</v>
+      <c r="B205" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C205" s="137" t="s">
         <v>681</v>
@@ -22213,12 +22225,12 @@
       <c r="S205" s="163"/>
       <c r="T205" s="150"/>
     </row>
-    <row r="206" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B206" s="137" t="s">
-        <v>1468</v>
+      <c r="B206" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C206" s="137" t="s">
         <v>681</v>
@@ -22272,12 +22284,12 @@
       <c r="S206" s="163"/>
       <c r="T206" s="150"/>
     </row>
-    <row r="207" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B207" s="137" t="s">
-        <v>1468</v>
+      <c r="B207" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C207" s="137" t="s">
         <v>681</v>
@@ -22317,12 +22329,12 @@
       <c r="S207" s="163"/>
       <c r="T207" s="150"/>
     </row>
-    <row r="208" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B208" s="137" t="s">
-        <v>1468</v>
+      <c r="B208" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C208" s="137" t="s">
         <v>681</v>
@@ -22362,12 +22374,12 @@
       <c r="S208" s="163"/>
       <c r="T208" s="150"/>
     </row>
-    <row r="209" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B209" s="137" t="s">
-        <v>1468</v>
+      <c r="B209" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C209" s="137" t="s">
         <v>681</v>
@@ -22421,12 +22433,12 @@
       <c r="S209" s="163"/>
       <c r="T209" s="150"/>
     </row>
-    <row r="210" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B210" s="137" t="s">
-        <v>1468</v>
+      <c r="B210" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C210" s="137" t="s">
         <v>681</v>
@@ -22466,12 +22478,12 @@
       <c r="S210" s="163"/>
       <c r="T210" s="150"/>
     </row>
-    <row r="211" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B211" s="137" t="s">
-        <v>1468</v>
+      <c r="B211" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C211" s="137" t="s">
         <v>681</v>
@@ -22525,12 +22537,12 @@
       <c r="S211" s="163"/>
       <c r="T211" s="150"/>
     </row>
-    <row r="212" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B212" s="137" t="s">
-        <v>1468</v>
+      <c r="B212" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C212" s="137" t="s">
         <v>681</v>
@@ -22570,12 +22582,12 @@
       <c r="S212" s="163"/>
       <c r="T212" s="150"/>
     </row>
-    <row r="213" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B213" s="137" t="s">
-        <v>1468</v>
+      <c r="B213" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C213" s="137" t="s">
         <v>681</v>
@@ -22615,12 +22627,12 @@
       <c r="S213" s="163"/>
       <c r="T213" s="150"/>
     </row>
-    <row r="214" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B214" s="137" t="s">
-        <v>1468</v>
+      <c r="B214" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C214" s="137" t="s">
         <v>681</v>
@@ -22660,12 +22672,12 @@
       <c r="S214" s="163"/>
       <c r="T214" s="150"/>
     </row>
-    <row r="215" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B215" s="137" t="s">
-        <v>1468</v>
+      <c r="B215" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C215" s="137" t="s">
         <v>681</v>
@@ -22705,12 +22717,12 @@
       <c r="S215" s="163"/>
       <c r="T215" s="150"/>
     </row>
-    <row r="216" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A216" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B216" s="137" t="s">
-        <v>1468</v>
+      <c r="B216" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C216" s="137" t="s">
         <v>681</v>
@@ -22750,12 +22762,12 @@
       <c r="S216" s="163"/>
       <c r="T216" s="150"/>
     </row>
-    <row r="217" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B217" s="137" t="s">
-        <v>1468</v>
+      <c r="B217" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C217" s="137" t="s">
         <v>681</v>
@@ -22795,12 +22807,12 @@
       <c r="S217" s="163"/>
       <c r="T217" s="150"/>
     </row>
-    <row r="218" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B218" s="137" t="s">
-        <v>1468</v>
+      <c r="B218" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C218" s="137" t="s">
         <v>681</v>
@@ -22840,12 +22852,12 @@
       <c r="S218" s="163"/>
       <c r="T218" s="150"/>
     </row>
-    <row r="219" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B219" s="137" t="s">
-        <v>1468</v>
+      <c r="B219" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C219" s="137" t="s">
         <v>681</v>
@@ -22899,12 +22911,12 @@
       <c r="S219" s="163"/>
       <c r="T219" s="150"/>
     </row>
-    <row r="220" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B220" s="137" t="s">
-        <v>1468</v>
+      <c r="B220" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C220" s="137" t="s">
         <v>681</v>
@@ -22958,12 +22970,12 @@
       <c r="S220" s="163"/>
       <c r="T220" s="150"/>
     </row>
-    <row r="221" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B221" s="137" t="s">
-        <v>1468</v>
+      <c r="B221" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C221" s="137" t="s">
         <v>681</v>
@@ -23017,12 +23029,12 @@
       <c r="S221" s="163"/>
       <c r="T221" s="150"/>
     </row>
-    <row r="222" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B222" s="137" t="s">
-        <v>1468</v>
+      <c r="B222" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C222" s="137" t="s">
         <v>681</v>
@@ -23076,12 +23088,12 @@
       <c r="S222" s="163"/>
       <c r="T222" s="150"/>
     </row>
-    <row r="223" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B223" s="137" t="s">
-        <v>1468</v>
+      <c r="B223" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C223" s="137" t="s">
         <v>681</v>
@@ -23135,12 +23147,12 @@
       <c r="S223" s="163"/>
       <c r="T223" s="150"/>
     </row>
-    <row r="224" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B224" s="137" t="s">
-        <v>1468</v>
+      <c r="B224" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C224" s="137" t="s">
         <v>681</v>
@@ -23180,12 +23192,12 @@
       <c r="S224" s="163"/>
       <c r="T224" s="150"/>
     </row>
-    <row r="225" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B225" s="137" t="s">
-        <v>1468</v>
+      <c r="B225" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C225" s="137" t="s">
         <v>681</v>
@@ -23239,12 +23251,12 @@
       <c r="S225" s="163"/>
       <c r="T225" s="150"/>
     </row>
-    <row r="226" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B226" s="137" t="s">
-        <v>1468</v>
+      <c r="B226" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C226" s="137" t="s">
         <v>681</v>
@@ -23298,12 +23310,12 @@
       <c r="S226" s="163"/>
       <c r="T226" s="150"/>
     </row>
-    <row r="227" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A227" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B227" s="137" t="s">
-        <v>1468</v>
+      <c r="B227" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C227" s="137" t="s">
         <v>681</v>
@@ -23343,12 +23355,12 @@
       <c r="S227" s="163"/>
       <c r="T227" s="150"/>
     </row>
-    <row r="228" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B228" s="137" t="s">
-        <v>1468</v>
+      <c r="B228" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C228" s="137" t="s">
         <v>681</v>
@@ -23388,12 +23400,12 @@
       <c r="S228" s="163"/>
       <c r="T228" s="150"/>
     </row>
-    <row r="229" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B229" s="137" t="s">
-        <v>1468</v>
+      <c r="B229" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C229" s="137" t="s">
         <v>681</v>
@@ -23447,12 +23459,12 @@
       <c r="S229" s="163"/>
       <c r="T229" s="150"/>
     </row>
-    <row r="230" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B230" s="137" t="s">
-        <v>1468</v>
+      <c r="B230" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C230" s="137" t="s">
         <v>681</v>
@@ -23506,12 +23518,12 @@
       <c r="S230" s="163"/>
       <c r="T230" s="150"/>
     </row>
-    <row r="231" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B231" s="137" t="s">
-        <v>1468</v>
+      <c r="B231" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C231" s="137" t="s">
         <v>681</v>
@@ -23565,12 +23577,12 @@
       <c r="S231" s="163"/>
       <c r="T231" s="150"/>
     </row>
-    <row r="232" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B232" s="137" t="s">
-        <v>1468</v>
+      <c r="B232" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C232" s="137" t="s">
         <v>681</v>
@@ -23624,12 +23636,12 @@
       <c r="S232" s="163"/>
       <c r="T232" s="150"/>
     </row>
-    <row r="233" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A233" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B233" s="137" t="s">
-        <v>1468</v>
+      <c r="B233" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C233" s="137" t="s">
         <v>681</v>
@@ -23683,12 +23695,12 @@
       <c r="S233" s="163"/>
       <c r="T233" s="150"/>
     </row>
-    <row r="234" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A234" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B234" s="137" t="s">
-        <v>1468</v>
+      <c r="B234" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C234" s="137" t="s">
         <v>681</v>
@@ -23728,12 +23740,12 @@
       <c r="S234" s="163"/>
       <c r="T234" s="150"/>
     </row>
-    <row r="235" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A235" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B235" s="137" t="s">
-        <v>1468</v>
+      <c r="B235" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C235" s="137" t="s">
         <v>681</v>
@@ -23787,12 +23799,12 @@
       <c r="S235" s="163"/>
       <c r="T235" s="150"/>
     </row>
-    <row r="236" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A236" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B236" s="137" t="s">
-        <v>1468</v>
+      <c r="B236" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C236" s="137" t="s">
         <v>681</v>
@@ -23846,12 +23858,12 @@
       <c r="S236" s="163"/>
       <c r="T236" s="150"/>
     </row>
-    <row r="237" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A237" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B237" s="137" t="s">
-        <v>1468</v>
+      <c r="B237" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C237" s="137" t="s">
         <v>681</v>
@@ -23891,12 +23903,12 @@
       <c r="S237" s="163"/>
       <c r="T237" s="150"/>
     </row>
-    <row r="238" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A238" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B238" s="137" t="s">
-        <v>1468</v>
+      <c r="B238" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C238" s="137" t="s">
         <v>681</v>
@@ -23936,12 +23948,12 @@
       <c r="S238" s="163"/>
       <c r="T238" s="150"/>
     </row>
-    <row r="239" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B239" s="137" t="s">
-        <v>1468</v>
+      <c r="B239" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C239" s="137" t="s">
         <v>681</v>
@@ -23995,12 +24007,12 @@
       <c r="S239" s="163"/>
       <c r="T239" s="150"/>
     </row>
-    <row r="240" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A240" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B240" s="137" t="s">
-        <v>1468</v>
+      <c r="B240" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C240" s="137" t="s">
         <v>681</v>
@@ -24054,12 +24066,12 @@
       <c r="S240" s="163"/>
       <c r="T240" s="150"/>
     </row>
-    <row r="241" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A241" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B241" s="137" t="s">
-        <v>1468</v>
+      <c r="B241" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C241" s="137" t="s">
         <v>681</v>
@@ -24113,12 +24125,12 @@
       <c r="S241" s="163"/>
       <c r="T241" s="150"/>
     </row>
-    <row r="242" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A242" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B242" s="137" t="s">
-        <v>1468</v>
+      <c r="B242" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C242" s="137" t="s">
         <v>681</v>
@@ -24172,12 +24184,12 @@
       <c r="S242" s="163"/>
       <c r="T242" s="150"/>
     </row>
-    <row r="243" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A243" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B243" s="137" t="s">
-        <v>1468</v>
+      <c r="B243" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C243" s="137" t="s">
         <v>681</v>
@@ -24231,12 +24243,12 @@
       <c r="S243" s="163"/>
       <c r="T243" s="150"/>
     </row>
-    <row r="244" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A244" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B244" s="137" t="s">
-        <v>1468</v>
+      <c r="B244" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C244" s="137" t="s">
         <v>681</v>
@@ -24290,12 +24302,12 @@
       <c r="S244" s="163"/>
       <c r="T244" s="150"/>
     </row>
-    <row r="245" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A245" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B245" s="137" t="s">
-        <v>1468</v>
+      <c r="B245" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C245" s="137" t="s">
         <v>681</v>
@@ -24349,12 +24361,12 @@
       <c r="S245" s="163"/>
       <c r="T245" s="150"/>
     </row>
-    <row r="246" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A246" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B246" s="137" t="s">
-        <v>1468</v>
+      <c r="B246" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C246" s="137" t="s">
         <v>681</v>
@@ -24408,12 +24420,12 @@
       <c r="S246" s="163"/>
       <c r="T246" s="150"/>
     </row>
-    <row r="247" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A247" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B247" s="137" t="s">
-        <v>1468</v>
+      <c r="B247" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C247" s="137" t="s">
         <v>681</v>
@@ -24453,12 +24465,12 @@
       <c r="S247" s="163"/>
       <c r="T247" s="150"/>
     </row>
-    <row r="248" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A248" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B248" s="137" t="s">
-        <v>1468</v>
+      <c r="B248" s="5" t="s">
+        <v>1465</v>
       </c>
       <c r="C248" s="137" t="s">
         <v>681</v>
@@ -24498,12 +24510,12 @@
       <c r="S248" s="163"/>
       <c r="T248" s="150"/>
     </row>
-    <row r="249" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A249" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B249" s="150" t="s">
-        <v>1469</v>
+      <c r="B249" s="3" t="s">
+        <v>1466</v>
       </c>
       <c r="C249" s="150" t="s">
         <v>771</v>
@@ -24549,12 +24561,12 @@
       </c>
       <c r="T249" s="150"/>
     </row>
-    <row r="250" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A250" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B250" s="150" t="s">
-        <v>1470</v>
+      <c r="B250" s="3" t="s">
+        <v>1467</v>
       </c>
       <c r="C250" s="150" t="s">
         <v>768</v>
@@ -24600,12 +24612,12 @@
       </c>
       <c r="T250" s="131"/>
     </row>
-    <row r="251" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B251" s="150" t="s">
-        <v>1471</v>
+      <c r="B251" s="3" t="s">
+        <v>1468</v>
       </c>
       <c r="C251" s="150" t="s">
         <v>485</v>
@@ -24661,12 +24673,12 @@
       </c>
       <c r="T251" s="131"/>
     </row>
-    <row r="252" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B252" s="137" t="s">
-        <v>1471</v>
+      <c r="B252" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C252" s="137" t="s">
         <v>485</v>
@@ -24720,12 +24732,12 @@
       <c r="S252" s="167"/>
       <c r="T252" s="131"/>
     </row>
-    <row r="253" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A253" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B253" s="137" t="s">
-        <v>1471</v>
+      <c r="B253" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C253" s="137" t="s">
         <v>485</v>
@@ -24781,12 +24793,12 @@
       </c>
       <c r="T253" s="131"/>
     </row>
-    <row r="254" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A254" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B254" s="137" t="s">
-        <v>1471</v>
+      <c r="B254" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C254" s="137" t="s">
         <v>485</v>
@@ -24840,12 +24852,12 @@
       <c r="S254" s="167"/>
       <c r="T254" s="131"/>
     </row>
-    <row r="255" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B255" s="137" t="s">
-        <v>1471</v>
+      <c r="B255" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C255" s="137" t="s">
         <v>485</v>
@@ -24899,12 +24911,12 @@
       <c r="S255" s="167"/>
       <c r="T255" s="131"/>
     </row>
-    <row r="256" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B256" s="137" t="s">
-        <v>1471</v>
+      <c r="B256" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C256" s="137" t="s">
         <v>485</v>
@@ -24958,12 +24970,12 @@
       <c r="S256" s="167"/>
       <c r="T256" s="131"/>
     </row>
-    <row r="257" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A257" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B257" s="137" t="s">
-        <v>1471</v>
+      <c r="B257" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C257" s="137" t="s">
         <v>485</v>
@@ -25017,12 +25029,12 @@
       <c r="S257" s="167"/>
       <c r="T257" s="131"/>
     </row>
-    <row r="258" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A258" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B258" s="137" t="s">
-        <v>1471</v>
+      <c r="B258" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C258" s="137" t="s">
         <v>485</v>
@@ -25076,12 +25088,12 @@
       <c r="S258" s="167"/>
       <c r="T258" s="131"/>
     </row>
-    <row r="259" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B259" s="137" t="s">
-        <v>1471</v>
+      <c r="B259" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C259" s="137" t="s">
         <v>485</v>
@@ -25137,12 +25149,12 @@
       </c>
       <c r="T259" s="131"/>
     </row>
-    <row r="260" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A260" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B260" s="137" t="s">
-        <v>1471</v>
+      <c r="B260" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C260" s="137" t="s">
         <v>485</v>
@@ -25196,12 +25208,12 @@
       <c r="S260" s="167"/>
       <c r="T260" s="131"/>
     </row>
-    <row r="261" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A261" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B261" s="137" t="s">
-        <v>1471</v>
+      <c r="B261" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C261" s="137" t="s">
         <v>485</v>
@@ -25255,12 +25267,12 @@
       <c r="S261" s="167"/>
       <c r="T261" s="131"/>
     </row>
-    <row r="262" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B262" s="137" t="s">
-        <v>1471</v>
+      <c r="B262" s="5" t="s">
+        <v>1468</v>
       </c>
       <c r="C262" s="137" t="s">
         <v>485</v>
@@ -25300,12 +25312,12 @@
       <c r="S262" s="167"/>
       <c r="T262" s="131"/>
     </row>
-    <row r="263" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B263" s="150" t="s">
-        <v>1472</v>
+      <c r="B263" s="3" t="s">
+        <v>1469</v>
       </c>
       <c r="C263" s="150" t="s">
         <v>480</v>
@@ -25361,12 +25373,12 @@
       </c>
       <c r="T263" s="131"/>
     </row>
-    <row r="264" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A264" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B264" s="137" t="s">
-        <v>1472</v>
+      <c r="B264" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C264" s="137" t="s">
         <v>480</v>
@@ -25406,12 +25418,12 @@
       <c r="S264" s="169"/>
       <c r="T264" s="61"/>
     </row>
-    <row r="265" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A265" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B265" s="137" t="s">
-        <v>1472</v>
+      <c r="B265" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C265" s="137" t="s">
         <v>480</v>
@@ -25451,12 +25463,12 @@
       <c r="S265" s="169"/>
       <c r="T265" s="61"/>
     </row>
-    <row r="266" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A266" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B266" s="137" t="s">
-        <v>1472</v>
+      <c r="B266" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C266" s="137" t="s">
         <v>480</v>
@@ -25496,12 +25508,12 @@
       <c r="S266" s="169"/>
       <c r="T266" s="61"/>
     </row>
-    <row r="267" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A267" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B267" s="137" t="s">
-        <v>1472</v>
+      <c r="B267" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C267" s="137" t="s">
         <v>480</v>
@@ -25541,12 +25553,12 @@
       <c r="S267" s="169"/>
       <c r="T267" s="61"/>
     </row>
-    <row r="268" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A268" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B268" s="137" t="s">
-        <v>1472</v>
+      <c r="B268" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C268" s="137" t="s">
         <v>480</v>
@@ -25586,12 +25598,12 @@
       <c r="S268" s="169"/>
       <c r="T268" s="61"/>
     </row>
-    <row r="269" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A269" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B269" s="137" t="s">
-        <v>1472</v>
+      <c r="B269" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C269" s="137" t="s">
         <v>480</v>
@@ -25631,12 +25643,12 @@
       <c r="S269" s="169"/>
       <c r="T269" s="61"/>
     </row>
-    <row r="270" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B270" s="137" t="s">
-        <v>1472</v>
+      <c r="B270" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C270" s="137" t="s">
         <v>480</v>
@@ -25676,12 +25688,12 @@
       <c r="S270" s="169"/>
       <c r="T270" s="61"/>
     </row>
-    <row r="271" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B271" s="137" t="s">
-        <v>1472</v>
+      <c r="B271" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C271" s="137" t="s">
         <v>480</v>
@@ -25721,12 +25733,12 @@
       <c r="S271" s="169"/>
       <c r="T271" s="61"/>
     </row>
-    <row r="272" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B272" s="137" t="s">
-        <v>1472</v>
+      <c r="B272" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C272" s="137" t="s">
         <v>480</v>
@@ -25766,12 +25778,12 @@
       <c r="S272" s="169"/>
       <c r="T272" s="61"/>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B273" s="137" t="s">
-        <v>1472</v>
+      <c r="B273" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C273" s="137" t="s">
         <v>480</v>
@@ -25811,12 +25823,12 @@
       <c r="S273" s="169"/>
       <c r="T273" s="61"/>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B274" s="137" t="s">
-        <v>1472</v>
+      <c r="B274" s="5" t="s">
+        <v>1469</v>
       </c>
       <c r="C274" s="137" t="s">
         <v>480</v>
@@ -25860,8 +25872,8 @@
       <c r="A275" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B275" s="61" t="s">
-        <v>1473</v>
+      <c r="B275" s="4" t="s">
+        <v>1470</v>
       </c>
       <c r="C275" s="61" t="s">
         <v>99</v>
@@ -25911,12 +25923,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A276" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B276" s="61" t="s">
-        <v>1474</v>
+      <c r="B276" s="4" t="s">
+        <v>1471</v>
       </c>
       <c r="C276" s="61" t="s">
         <v>304</v>
@@ -25974,12 +25986,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A277" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B277" s="137" t="s">
-        <v>1474</v>
+      <c r="B277" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C277" s="137" t="s">
         <v>304</v>
@@ -26037,12 +26049,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B278" s="137" t="s">
-        <v>1474</v>
+      <c r="B278" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C278" s="137" t="s">
         <v>304</v>
@@ -26100,12 +26112,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A279" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B279" s="137" t="s">
-        <v>1474</v>
+      <c r="B279" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C279" s="137" t="s">
         <v>304</v>
@@ -26163,12 +26175,12 @@
         <v>377</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B280" s="137" t="s">
-        <v>1474</v>
+      <c r="B280" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C280" s="137" t="s">
         <v>304</v>
@@ -26226,12 +26238,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B281" s="137" t="s">
-        <v>1474</v>
+      <c r="B281" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C281" s="137" t="s">
         <v>304</v>
@@ -26289,12 +26301,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B282" s="137" t="s">
-        <v>1474</v>
+      <c r="B282" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C282" s="137" t="s">
         <v>304</v>
@@ -26352,12 +26364,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="283" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A283" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B283" s="137" t="s">
-        <v>1474</v>
+      <c r="B283" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C283" s="137" t="s">
         <v>304</v>
@@ -26415,12 +26427,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="284" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A284" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B284" s="137" t="s">
-        <v>1474</v>
+      <c r="B284" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C284" s="137" t="s">
         <v>304</v>
@@ -26478,12 +26490,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="285" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A285" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B285" s="137" t="s">
-        <v>1474</v>
+      <c r="B285" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C285" s="137" t="s">
         <v>304</v>
@@ -26541,12 +26553,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="286" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A286" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B286" s="137" t="s">
-        <v>1474</v>
+      <c r="B286" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C286" s="137" t="s">
         <v>304</v>
@@ -26604,12 +26616,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="287" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A287" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B287" s="137" t="s">
-        <v>1474</v>
+      <c r="B287" s="5" t="s">
+        <v>1471</v>
       </c>
       <c r="C287" s="137" t="s">
         <v>304</v>
@@ -26651,12 +26663,12 @@
       <c r="S287" s="135"/>
       <c r="T287" s="127"/>
     </row>
-    <row r="288" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B288" s="150" t="s">
-        <v>1475</v>
+      <c r="B288" s="3" t="s">
+        <v>1472</v>
       </c>
       <c r="C288" s="150" t="s">
         <v>808</v>
@@ -26710,12 +26722,12 @@
       </c>
       <c r="T288" s="131"/>
     </row>
-    <row r="289" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A289" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B289" s="137" t="s">
-        <v>1475</v>
+      <c r="B289" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C289" s="137" t="s">
         <v>808</v>
@@ -26767,12 +26779,12 @@
       <c r="S289" s="135"/>
       <c r="T289" s="127"/>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B290" s="137" t="s">
-        <v>1475</v>
+      <c r="B290" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C290" s="137" t="s">
         <v>808</v>
@@ -26824,12 +26836,12 @@
       <c r="S290" s="135"/>
       <c r="T290" s="127"/>
     </row>
-    <row r="291" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A291" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B291" s="137" t="s">
-        <v>1475</v>
+      <c r="B291" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C291" s="137" t="s">
         <v>808</v>
@@ -26881,12 +26893,12 @@
       <c r="S291" s="135"/>
       <c r="T291" s="127"/>
     </row>
-    <row r="292" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A292" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B292" s="137" t="s">
-        <v>1475</v>
+      <c r="B292" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C292" s="137" t="s">
         <v>808</v>
@@ -26936,12 +26948,12 @@
       <c r="S292" s="135"/>
       <c r="T292" s="127"/>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A293" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B293" s="137" t="s">
-        <v>1475</v>
+      <c r="B293" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C293" s="137" t="s">
         <v>808</v>
@@ -26991,12 +27003,12 @@
       <c r="S293" s="135"/>
       <c r="T293" s="127"/>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A294" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B294" s="137" t="s">
-        <v>1475</v>
+      <c r="B294" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C294" s="137" t="s">
         <v>808</v>
@@ -27046,12 +27058,12 @@
       <c r="S294" s="135"/>
       <c r="T294" s="127"/>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A295" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B295" s="137" t="s">
-        <v>1475</v>
+      <c r="B295" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C295" s="137" t="s">
         <v>808</v>
@@ -27101,12 +27113,12 @@
       <c r="S295" s="135"/>
       <c r="T295" s="127"/>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A296" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B296" s="137" t="s">
-        <v>1475</v>
+      <c r="B296" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C296" s="137" t="s">
         <v>808</v>
@@ -27156,12 +27168,12 @@
       <c r="S296" s="135"/>
       <c r="T296" s="127"/>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B297" s="137" t="s">
-        <v>1475</v>
+      <c r="B297" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C297" s="137" t="s">
         <v>808</v>
@@ -27211,12 +27223,12 @@
       <c r="S297" s="135"/>
       <c r="T297" s="127"/>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A298" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B298" s="137" t="s">
-        <v>1475</v>
+      <c r="B298" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C298" s="137" t="s">
         <v>808</v>
@@ -27254,12 +27266,12 @@
       <c r="S298" s="135"/>
       <c r="T298" s="127"/>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A299" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B299" s="137" t="s">
-        <v>1475</v>
+      <c r="B299" s="5" t="s">
+        <v>1472</v>
       </c>
       <c r="C299" s="137" t="s">
         <v>808</v>
@@ -27297,12 +27309,12 @@
       <c r="S299" s="135"/>
       <c r="T299" s="127"/>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A300" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B300" s="61" t="s">
-        <v>1476</v>
+      <c r="B300" s="4" t="s">
+        <v>1473</v>
       </c>
       <c r="C300" s="61" t="s">
         <v>305</v>
@@ -27354,12 +27366,12 @@
       </c>
       <c r="T300" s="127"/>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A301" s="124" t="s">
         <v>1216</v>
       </c>
-      <c r="B301" s="137" t="s">
-        <v>1476</v>
+      <c r="B301" s="5" t="s">
+        <v>1473</v>
       </c>
       <c r="C301" s="137" t="s">
         <v>305</v>
@@ -27411,12 +27423,12 @@
       </c>
       <c r="T301" s="127"/>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A302" s="124" t="s">
         <v>1294</v>
       </c>
-      <c r="B302" s="105" t="s">
-        <v>1477</v>
+      <c r="B302" s="193" t="s">
+        <v>1474</v>
       </c>
       <c r="C302" s="61" t="s">
         <v>448</v>
@@ -27466,12 +27478,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A303" s="124" t="s">
         <v>1294</v>
       </c>
-      <c r="B303" s="105" t="s">
-        <v>1478</v>
+      <c r="B303" s="193" t="s">
+        <v>1475</v>
       </c>
       <c r="C303" s="61" t="s">
         <v>455</v>
@@ -27507,12 +27519,12 @@
       <c r="S303" s="135"/>
       <c r="T303" s="127"/>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A304" s="124" t="s">
         <v>1294</v>
       </c>
-      <c r="B304" s="61" t="s">
-        <v>1479</v>
+      <c r="B304" s="4" t="s">
+        <v>1476</v>
       </c>
       <c r="C304" s="61" t="s">
         <v>289</v>
@@ -27560,12 +27572,12 @@
       </c>
       <c r="T304" s="127"/>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A305" s="124" t="s">
         <v>1294</v>
       </c>
-      <c r="B305" s="61" t="s">
-        <v>1480</v>
+      <c r="B305" s="4" t="s">
+        <v>1477</v>
       </c>
       <c r="C305" s="61" t="s">
         <v>452</v>
@@ -27601,12 +27613,12 @@
       <c r="S305" s="135"/>
       <c r="T305" s="127"/>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A306" s="124" t="s">
         <v>1294</v>
       </c>
-      <c r="B306" s="61" t="s">
-        <v>1481</v>
+      <c r="B306" s="4" t="s">
+        <v>1478</v>
       </c>
       <c r="C306" s="61" t="s">
         <v>449</v>
@@ -27654,12 +27666,12 @@
       </c>
       <c r="T306" s="127"/>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A307" s="124" t="s">
         <v>1294</v>
       </c>
-      <c r="B307" s="61" t="s">
-        <v>1482</v>
+      <c r="B307" s="4" t="s">
+        <v>1479</v>
       </c>
       <c r="C307" s="61" t="s">
         <v>450</v>
@@ -27707,12 +27719,12 @@
       </c>
       <c r="T307" s="127"/>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A308" s="124" t="s">
         <v>1294</v>
       </c>
-      <c r="B308" s="61" t="s">
-        <v>1483</v>
+      <c r="B308" s="4" t="s">
+        <v>1480</v>
       </c>
       <c r="C308" s="61" t="s">
         <v>451</v>
@@ -27748,12 +27760,12 @@
       <c r="S308" s="135"/>
       <c r="T308" s="127"/>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A309" s="124" t="s">
         <v>1294</v>
       </c>
-      <c r="B309" s="130" t="s">
-        <v>1484</v>
+      <c r="B309" s="182" t="s">
+        <v>1481</v>
       </c>
       <c r="C309" s="61" t="s">
         <v>43</v>
@@ -27801,12 +27813,12 @@
       </c>
       <c r="T309" s="127"/>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A310" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B310" s="61" t="s">
-        <v>1485</v>
+      <c r="B310" s="4" t="s">
+        <v>1497</v>
       </c>
       <c r="C310" s="61" t="s">
         <v>131</v>
@@ -27844,12 +27856,12 @@
       <c r="S310" s="132"/>
       <c r="T310" s="129"/>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A311" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B311" s="137" t="s">
-        <v>1485</v>
+      <c r="B311" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C311" s="137" t="s">
         <v>131</v>
@@ -27887,12 +27899,12 @@
       <c r="S311" s="135"/>
       <c r="T311" s="129"/>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A312" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B312" s="137" t="s">
-        <v>1485</v>
+      <c r="B312" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C312" s="137" t="s">
         <v>131</v>
@@ -27930,12 +27942,12 @@
       <c r="S312" s="135"/>
       <c r="T312" s="129"/>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A313" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B313" s="137" t="s">
-        <v>1485</v>
+      <c r="B313" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C313" s="137" t="s">
         <v>131</v>
@@ -27973,12 +27985,12 @@
       <c r="S313" s="135"/>
       <c r="T313" s="129"/>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A314" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B314" s="137" t="s">
-        <v>1485</v>
+      <c r="B314" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C314" s="137" t="s">
         <v>131</v>
@@ -28016,12 +28028,12 @@
       <c r="S314" s="135"/>
       <c r="T314" s="129"/>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A315" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B315" s="137" t="s">
-        <v>1485</v>
+      <c r="B315" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C315" s="137" t="s">
         <v>131</v>
@@ -28059,12 +28071,12 @@
       <c r="S315" s="135"/>
       <c r="T315" s="129"/>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A316" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B316" s="137" t="s">
-        <v>1485</v>
+      <c r="B316" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C316" s="137" t="s">
         <v>131</v>
@@ -28102,12 +28114,12 @@
       <c r="S316" s="135"/>
       <c r="T316" s="129"/>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A317" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B317" s="137" t="s">
-        <v>1485</v>
+      <c r="B317" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C317" s="137" t="s">
         <v>131</v>
@@ -28145,12 +28157,12 @@
       <c r="S317" s="132"/>
       <c r="T317" s="129"/>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A318" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B318" s="137" t="s">
-        <v>1485</v>
+      <c r="B318" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C318" s="137" t="s">
         <v>131</v>
@@ -28188,12 +28200,12 @@
       <c r="S318" s="135"/>
       <c r="T318" s="129"/>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A319" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B319" s="137" t="s">
-        <v>1485</v>
+      <c r="B319" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C319" s="137" t="s">
         <v>131</v>
@@ -28231,12 +28243,12 @@
       <c r="S319" s="135"/>
       <c r="T319" s="129"/>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A320" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B320" s="137" t="s">
-        <v>1485</v>
+      <c r="B320" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C320" s="137" t="s">
         <v>131</v>
@@ -28274,12 +28286,12 @@
       <c r="S320" s="132"/>
       <c r="T320" s="129"/>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A321" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B321" s="137" t="s">
-        <v>1485</v>
+      <c r="B321" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C321" s="137" t="s">
         <v>131</v>
@@ -28317,12 +28329,12 @@
       <c r="S321" s="132"/>
       <c r="T321" s="129"/>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A322" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B322" s="137" t="s">
-        <v>1485</v>
+      <c r="B322" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C322" s="137" t="s">
         <v>131</v>
@@ -28360,12 +28372,12 @@
       <c r="S322" s="135"/>
       <c r="T322" s="129"/>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A323" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B323" s="137" t="s">
-        <v>1485</v>
+      <c r="B323" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C323" s="137" t="s">
         <v>131</v>
@@ -28403,12 +28415,12 @@
       <c r="S323" s="132"/>
       <c r="T323" s="129"/>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A324" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B324" s="137" t="s">
-        <v>1485</v>
+      <c r="B324" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C324" s="137" t="s">
         <v>131</v>
@@ -28444,12 +28456,12 @@
       <c r="S324" s="132"/>
       <c r="T324" s="129"/>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A325" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B325" s="137" t="s">
-        <v>1485</v>
+      <c r="B325" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C325" s="137" t="s">
         <v>131</v>
@@ -28485,12 +28497,12 @@
       <c r="S325" s="132"/>
       <c r="T325" s="129"/>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A326" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B326" s="137" t="s">
-        <v>1485</v>
+      <c r="B326" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C326" s="137" t="s">
         <v>131</v>
@@ -28528,12 +28540,12 @@
       <c r="S326" s="132"/>
       <c r="T326" s="129"/>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A327" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B327" s="137" t="s">
-        <v>1485</v>
+      <c r="B327" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C327" s="137" t="s">
         <v>131</v>
@@ -28571,12 +28583,12 @@
       <c r="S327" s="132"/>
       <c r="T327" s="129"/>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A328" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B328" s="137" t="s">
-        <v>1485</v>
+      <c r="B328" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C328" s="137" t="s">
         <v>131</v>
@@ -28614,12 +28626,12 @@
       <c r="S328" s="132"/>
       <c r="T328" s="129"/>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A329" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B329" s="137" t="s">
-        <v>1485</v>
+      <c r="B329" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C329" s="137" t="s">
         <v>131</v>
@@ -28655,12 +28667,12 @@
       <c r="S329" s="132"/>
       <c r="T329" s="129"/>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A330" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B330" s="137" t="s">
-        <v>1485</v>
+      <c r="B330" s="5" t="s">
+        <v>1497</v>
       </c>
       <c r="C330" s="137" t="s">
         <v>131</v>
@@ -28696,12 +28708,12 @@
       <c r="S330" s="132"/>
       <c r="T330" s="129"/>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A331" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B331" s="150" t="s">
-        <v>1486</v>
+      <c r="B331" s="3" t="s">
+        <v>1498</v>
       </c>
       <c r="C331" s="150" t="s">
         <v>1016</v>
@@ -28747,12 +28759,12 @@
       <c r="S331" s="144"/>
       <c r="T331" s="131"/>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A332" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B332" s="137" t="s">
-        <v>1486</v>
+      <c r="B332" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C332" s="137" t="s">
         <v>1016</v>
@@ -28800,12 +28812,12 @@
       </c>
       <c r="T332" s="131"/>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A333" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B333" s="137" t="s">
-        <v>1486</v>
+      <c r="B333" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C333" s="137" t="s">
         <v>1016</v>
@@ -28843,12 +28855,12 @@
       <c r="S333" s="144"/>
       <c r="T333" s="131"/>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A334" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B334" s="137" t="s">
-        <v>1486</v>
+      <c r="B334" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C334" s="137" t="s">
         <v>1016</v>
@@ -28886,12 +28898,12 @@
       <c r="S334" s="144"/>
       <c r="T334" s="131"/>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A335" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B335" s="137" t="s">
-        <v>1486</v>
+      <c r="B335" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C335" s="137" t="s">
         <v>1016</v>
@@ -28939,12 +28951,12 @@
       </c>
       <c r="T335" s="131"/>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A336" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B336" s="137" t="s">
-        <v>1486</v>
+      <c r="B336" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C336" s="137" t="s">
         <v>1016</v>
@@ -28992,12 +29004,12 @@
       </c>
       <c r="T336" s="131"/>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A337" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B337" s="137" t="s">
-        <v>1486</v>
+      <c r="B337" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C337" s="137" t="s">
         <v>1016</v>
@@ -29035,12 +29047,12 @@
       <c r="S337" s="144"/>
       <c r="T337" s="131"/>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A338" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B338" s="137" t="s">
-        <v>1486</v>
+      <c r="B338" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C338" s="137" t="s">
         <v>1016</v>
@@ -29078,12 +29090,12 @@
       <c r="S338" s="144"/>
       <c r="T338" s="131"/>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A339" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B339" s="137" t="s">
-        <v>1486</v>
+      <c r="B339" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C339" s="137" t="s">
         <v>1016</v>
@@ -29131,12 +29143,12 @@
       </c>
       <c r="T339" s="131"/>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A340" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B340" s="137" t="s">
-        <v>1486</v>
+      <c r="B340" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C340" s="137" t="s">
         <v>1016</v>
@@ -29174,12 +29186,12 @@
       <c r="S340" s="144"/>
       <c r="T340" s="131"/>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A341" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B341" s="137" t="s">
-        <v>1486</v>
+      <c r="B341" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C341" s="137" t="s">
         <v>1016</v>
@@ -29227,12 +29239,12 @@
       </c>
       <c r="T341" s="131"/>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A342" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B342" s="137" t="s">
-        <v>1486</v>
+      <c r="B342" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C342" s="137" t="s">
         <v>1016</v>
@@ -29280,12 +29292,12 @@
       </c>
       <c r="T342" s="131"/>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A343" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B343" s="137" t="s">
-        <v>1486</v>
+      <c r="B343" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C343" s="137" t="s">
         <v>1016</v>
@@ -29333,12 +29345,12 @@
       </c>
       <c r="T343" s="131"/>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A344" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B344" s="137" t="s">
-        <v>1486</v>
+      <c r="B344" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C344" s="137" t="s">
         <v>1016</v>
@@ -29376,12 +29388,12 @@
       <c r="S344" s="144"/>
       <c r="T344" s="131"/>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A345" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B345" s="137" t="s">
-        <v>1486</v>
+      <c r="B345" s="5" t="s">
+        <v>1498</v>
       </c>
       <c r="C345" s="137" t="s">
         <v>1016</v>
@@ -29419,12 +29431,12 @@
       <c r="S345" s="144"/>
       <c r="T345" s="131"/>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A346" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B346" s="150" t="s">
-        <v>1487</v>
+      <c r="B346" s="3" t="s">
+        <v>1499</v>
       </c>
       <c r="C346" s="150" t="s">
         <v>797</v>
@@ -29470,12 +29482,12 @@
       </c>
       <c r="T346" s="131"/>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A347" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B347" s="127" t="s">
-        <v>1488</v>
+      <c r="B347" s="180" t="s">
+        <v>1482</v>
       </c>
       <c r="C347" s="61" t="s">
         <v>1078</v>
@@ -29523,12 +29535,12 @@
       </c>
       <c r="T347" s="127"/>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A348" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B348" s="61" t="s">
-        <v>1489</v>
+      <c r="B348" s="4" t="s">
+        <v>1483</v>
       </c>
       <c r="C348" s="61" t="s">
         <v>308</v>
@@ -29562,12 +29574,12 @@
       <c r="S348" s="135"/>
       <c r="T348" s="127"/>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A349" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B349" s="61" t="s">
-        <v>1490</v>
+      <c r="B349" s="4" t="s">
+        <v>1484</v>
       </c>
       <c r="C349" s="61" t="s">
         <v>118</v>
@@ -29605,12 +29617,12 @@
       <c r="S349" s="144"/>
       <c r="T349" s="129"/>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A350" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B350" s="137" t="s">
-        <v>1490</v>
+      <c r="B350" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C350" s="137" t="s">
         <v>118</v>
@@ -29648,12 +29660,12 @@
       <c r="S350" s="144"/>
       <c r="T350" s="129"/>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A351" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B351" s="137" t="s">
-        <v>1490</v>
+      <c r="B351" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C351" s="137" t="s">
         <v>118</v>
@@ -29705,12 +29717,12 @@
       </c>
       <c r="T351" s="127"/>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A352" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B352" s="137" t="s">
-        <v>1490</v>
+      <c r="B352" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C352" s="137" t="s">
         <v>118</v>
@@ -29746,12 +29758,12 @@
       <c r="S352" s="132"/>
       <c r="T352" s="129"/>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A353" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B353" s="137" t="s">
-        <v>1490</v>
+      <c r="B353" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C353" s="137" t="s">
         <v>118</v>
@@ -29803,12 +29815,12 @@
       </c>
       <c r="T353" s="127"/>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A354" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B354" s="137" t="s">
-        <v>1490</v>
+      <c r="B354" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C354" s="137" t="s">
         <v>118</v>
@@ -29860,12 +29872,12 @@
       </c>
       <c r="T354" s="127"/>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A355" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B355" s="137" t="s">
-        <v>1490</v>
+      <c r="B355" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C355" s="137" t="s">
         <v>118</v>
@@ -29917,12 +29929,12 @@
       </c>
       <c r="T355" s="127"/>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A356" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B356" s="137" t="s">
-        <v>1490</v>
+      <c r="B356" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C356" s="137" t="s">
         <v>118</v>
@@ -29974,12 +29986,12 @@
       </c>
       <c r="T356" s="127"/>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B357" s="137" t="s">
-        <v>1490</v>
+      <c r="B357" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C357" s="137" t="s">
         <v>118</v>
@@ -30015,12 +30027,12 @@
       <c r="S357" s="132"/>
       <c r="T357" s="127"/>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A358" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B358" s="137" t="s">
-        <v>1490</v>
+      <c r="B358" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C358" s="137" t="s">
         <v>118</v>
@@ -30072,12 +30084,12 @@
       </c>
       <c r="T358" s="127"/>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A359" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B359" s="137" t="s">
-        <v>1490</v>
+      <c r="B359" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C359" s="137" t="s">
         <v>118</v>
@@ -30113,12 +30125,12 @@
       <c r="S359" s="132"/>
       <c r="T359" s="127"/>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A360" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B360" s="137" t="s">
-        <v>1490</v>
+      <c r="B360" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C360" s="137" t="s">
         <v>118</v>
@@ -30154,12 +30166,12 @@
       <c r="S360" s="132"/>
       <c r="T360" s="127"/>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A361" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B361" s="137" t="s">
-        <v>1490</v>
+      <c r="B361" s="5" t="s">
+        <v>1484</v>
       </c>
       <c r="C361" s="137" t="s">
         <v>118</v>
@@ -30195,12 +30207,12 @@
       <c r="S361" s="132"/>
       <c r="T361" s="127"/>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A362" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B362" s="61" t="s">
-        <v>1491</v>
+      <c r="B362" s="4" t="s">
+        <v>1485</v>
       </c>
       <c r="C362" s="61" t="s">
         <v>282</v>
@@ -30248,12 +30260,12 @@
       </c>
       <c r="T362" s="127"/>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A363" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B363" s="61" t="s">
-        <v>1492</v>
+      <c r="B363" s="4" t="s">
+        <v>1486</v>
       </c>
       <c r="C363" s="61" t="s">
         <v>702</v>
@@ -30307,12 +30319,12 @@
       <c r="S363" s="135"/>
       <c r="T363" s="127"/>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A364" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B364" s="137" t="s">
-        <v>1492</v>
+      <c r="B364" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C364" s="137" t="s">
         <v>702</v>
@@ -30366,12 +30378,12 @@
       <c r="S364" s="135"/>
       <c r="T364" s="127"/>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A365" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B365" s="137" t="s">
-        <v>1492</v>
+      <c r="B365" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C365" s="137" t="s">
         <v>702</v>
@@ -30425,12 +30437,12 @@
       <c r="S365" s="135"/>
       <c r="T365" s="127"/>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A366" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B366" s="137" t="s">
-        <v>1492</v>
+      <c r="B366" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C366" s="137" t="s">
         <v>702</v>
@@ -30484,12 +30496,12 @@
       <c r="S366" s="135"/>
       <c r="T366" s="127"/>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A367" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B367" s="137" t="s">
-        <v>1492</v>
+      <c r="B367" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C367" s="137" t="s">
         <v>702</v>
@@ -30543,12 +30555,12 @@
       <c r="S367" s="135"/>
       <c r="T367" s="127"/>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A368" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B368" s="137" t="s">
-        <v>1492</v>
+      <c r="B368" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C368" s="137" t="s">
         <v>702</v>
@@ -30602,12 +30614,12 @@
       <c r="S368" s="135"/>
       <c r="T368" s="127"/>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A369" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B369" s="137" t="s">
-        <v>1492</v>
+      <c r="B369" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C369" s="137" t="s">
         <v>702</v>
@@ -30661,12 +30673,12 @@
       <c r="S369" s="135"/>
       <c r="T369" s="127"/>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A370" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B370" s="137" t="s">
-        <v>1492</v>
+      <c r="B370" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C370" s="137" t="s">
         <v>702</v>
@@ -30720,12 +30732,12 @@
       <c r="S370" s="135"/>
       <c r="T370" s="127"/>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A371" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B371" s="137" t="s">
-        <v>1492</v>
+      <c r="B371" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C371" s="137" t="s">
         <v>702</v>
@@ -30779,12 +30791,12 @@
       <c r="S371" s="135"/>
       <c r="T371" s="127"/>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A372" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B372" s="137" t="s">
-        <v>1492</v>
+      <c r="B372" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C372" s="137" t="s">
         <v>702</v>
@@ -30838,12 +30850,12 @@
       <c r="S372" s="135"/>
       <c r="T372" s="127"/>
     </row>
-    <row r="373" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A373" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B373" s="137" t="s">
-        <v>1492</v>
+      <c r="B373" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C373" s="137" t="s">
         <v>702</v>
@@ -30897,12 +30909,12 @@
       <c r="S373" s="135"/>
       <c r="T373" s="127"/>
     </row>
-    <row r="374" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A374" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B374" s="137" t="s">
-        <v>1492</v>
+      <c r="B374" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C374" s="137" t="s">
         <v>702</v>
@@ -30956,12 +30968,12 @@
       <c r="S374" s="135"/>
       <c r="T374" s="127"/>
     </row>
-    <row r="375" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A375" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B375" s="137" t="s">
-        <v>1492</v>
+      <c r="B375" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C375" s="137" t="s">
         <v>702</v>
@@ -31015,12 +31027,12 @@
       <c r="S375" s="135"/>
       <c r="T375" s="127"/>
     </row>
-    <row r="376" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A376" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B376" s="137" t="s">
-        <v>1492</v>
+      <c r="B376" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C376" s="137" t="s">
         <v>702</v>
@@ -31074,12 +31086,12 @@
       <c r="S376" s="135"/>
       <c r="T376" s="127"/>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A377" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B377" s="137" t="s">
-        <v>1492</v>
+      <c r="B377" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C377" s="137" t="s">
         <v>702</v>
@@ -31133,12 +31145,12 @@
       <c r="S377" s="135"/>
       <c r="T377" s="127"/>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A378" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B378" s="137" t="s">
-        <v>1492</v>
+      <c r="B378" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C378" s="137" t="s">
         <v>702</v>
@@ -31192,12 +31204,12 @@
       <c r="S378" s="135"/>
       <c r="T378" s="127"/>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A379" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B379" s="137" t="s">
-        <v>1492</v>
+      <c r="B379" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C379" s="137" t="s">
         <v>702</v>
@@ -31251,12 +31263,12 @@
       <c r="S379" s="135"/>
       <c r="T379" s="127"/>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A380" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B380" s="137" t="s">
-        <v>1492</v>
+      <c r="B380" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C380" s="137" t="s">
         <v>702</v>
@@ -31310,12 +31322,12 @@
       <c r="S380" s="135"/>
       <c r="T380" s="127"/>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A381" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B381" s="137" t="s">
-        <v>1492</v>
+      <c r="B381" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C381" s="137" t="s">
         <v>702</v>
@@ -31369,12 +31381,12 @@
       <c r="S381" s="135"/>
       <c r="T381" s="127"/>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A382" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B382" s="137" t="s">
-        <v>1492</v>
+      <c r="B382" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C382" s="137" t="s">
         <v>702</v>
@@ -31428,12 +31440,12 @@
       <c r="S382" s="135"/>
       <c r="T382" s="127"/>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A383" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B383" s="137" t="s">
-        <v>1492</v>
+      <c r="B383" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C383" s="137" t="s">
         <v>702</v>
@@ -31487,12 +31499,12 @@
       <c r="S383" s="135"/>
       <c r="T383" s="127"/>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A384" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B384" s="137" t="s">
-        <v>1492</v>
+      <c r="B384" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C384" s="137" t="s">
         <v>702</v>
@@ -31546,12 +31558,12 @@
       <c r="S384" s="135"/>
       <c r="T384" s="127"/>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A385" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B385" s="137" t="s">
-        <v>1492</v>
+      <c r="B385" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C385" s="137" t="s">
         <v>702</v>
@@ -31605,12 +31617,12 @@
       <c r="S385" s="135"/>
       <c r="T385" s="127"/>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A386" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B386" s="137" t="s">
-        <v>1492</v>
+      <c r="B386" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C386" s="137" t="s">
         <v>702</v>
@@ -31664,12 +31676,12 @@
       <c r="S386" s="135"/>
       <c r="T386" s="127"/>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A387" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B387" s="137" t="s">
-        <v>1492</v>
+      <c r="B387" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C387" s="137" t="s">
         <v>702</v>
@@ -31723,12 +31735,12 @@
       <c r="S387" s="135"/>
       <c r="T387" s="127"/>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A388" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B388" s="137" t="s">
-        <v>1492</v>
+      <c r="B388" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C388" s="137" t="s">
         <v>702</v>
@@ -31782,12 +31794,12 @@
       <c r="S388" s="135"/>
       <c r="T388" s="127"/>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A389" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B389" s="137" t="s">
-        <v>1492</v>
+      <c r="B389" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C389" s="137" t="s">
         <v>702</v>
@@ -31841,12 +31853,12 @@
       <c r="S389" s="135"/>
       <c r="T389" s="127"/>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A390" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B390" s="137" t="s">
-        <v>1492</v>
+      <c r="B390" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C390" s="137" t="s">
         <v>702</v>
@@ -31900,12 +31912,12 @@
       <c r="S390" s="135"/>
       <c r="T390" s="127"/>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A391" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B391" s="137" t="s">
-        <v>1492</v>
+      <c r="B391" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C391" s="137" t="s">
         <v>702</v>
@@ -31959,12 +31971,12 @@
       <c r="S391" s="135"/>
       <c r="T391" s="127"/>
     </row>
-    <row r="392" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A392" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B392" s="137" t="s">
-        <v>1492</v>
+      <c r="B392" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C392" s="137" t="s">
         <v>702</v>
@@ -32018,12 +32030,12 @@
       <c r="S392" s="135"/>
       <c r="T392" s="127"/>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A393" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B393" s="137" t="s">
-        <v>1492</v>
+      <c r="B393" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C393" s="137" t="s">
         <v>702</v>
@@ -32077,12 +32089,12 @@
       <c r="S393" s="135"/>
       <c r="T393" s="127"/>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A394" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B394" s="137" t="s">
-        <v>1492</v>
+      <c r="B394" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C394" s="137" t="s">
         <v>702</v>
@@ -32136,12 +32148,12 @@
       <c r="S394" s="135"/>
       <c r="T394" s="127"/>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A395" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B395" s="137" t="s">
-        <v>1492</v>
+      <c r="B395" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C395" s="137" t="s">
         <v>702</v>
@@ -32195,12 +32207,12 @@
       <c r="S395" s="135"/>
       <c r="T395" s="127"/>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A396" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B396" s="137" t="s">
-        <v>1492</v>
+      <c r="B396" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C396" s="137" t="s">
         <v>702</v>
@@ -32254,12 +32266,12 @@
       <c r="S396" s="135"/>
       <c r="T396" s="127"/>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A397" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B397" s="137" t="s">
-        <v>1492</v>
+      <c r="B397" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C397" s="137" t="s">
         <v>702</v>
@@ -32313,12 +32325,12 @@
       <c r="S397" s="135"/>
       <c r="T397" s="127"/>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A398" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B398" s="137" t="s">
-        <v>1492</v>
+      <c r="B398" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C398" s="137" t="s">
         <v>702</v>
@@ -32372,12 +32384,12 @@
       <c r="S398" s="135"/>
       <c r="T398" s="127"/>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A399" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B399" s="137" t="s">
-        <v>1492</v>
+      <c r="B399" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C399" s="137" t="s">
         <v>702</v>
@@ -32431,12 +32443,12 @@
       <c r="S399" s="135"/>
       <c r="T399" s="127"/>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A400" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B400" s="137" t="s">
-        <v>1492</v>
+      <c r="B400" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C400" s="137" t="s">
         <v>702</v>
@@ -32490,12 +32502,12 @@
       <c r="S400" s="135"/>
       <c r="T400" s="127"/>
     </row>
-    <row r="401" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A401" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B401" s="137" t="s">
-        <v>1492</v>
+      <c r="B401" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C401" s="137" t="s">
         <v>702</v>
@@ -32549,12 +32561,12 @@
       <c r="S401" s="135"/>
       <c r="T401" s="127"/>
     </row>
-    <row r="402" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A402" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B402" s="137" t="s">
-        <v>1492</v>
+      <c r="B402" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C402" s="137" t="s">
         <v>702</v>
@@ -32608,12 +32620,12 @@
       <c r="S402" s="135"/>
       <c r="T402" s="127"/>
     </row>
-    <row r="403" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A403" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B403" s="137" t="s">
-        <v>1492</v>
+      <c r="B403" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C403" s="137" t="s">
         <v>702</v>
@@ -32667,12 +32679,12 @@
       <c r="S403" s="135"/>
       <c r="T403" s="127"/>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A404" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B404" s="137" t="s">
-        <v>1492</v>
+      <c r="B404" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C404" s="137" t="s">
         <v>702</v>
@@ -32726,12 +32738,12 @@
       <c r="S404" s="135"/>
       <c r="T404" s="127"/>
     </row>
-    <row r="405" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A405" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B405" s="137" t="s">
-        <v>1492</v>
+      <c r="B405" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C405" s="137" t="s">
         <v>702</v>
@@ -32785,12 +32797,12 @@
       <c r="S405" s="135"/>
       <c r="T405" s="127"/>
     </row>
-    <row r="406" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A406" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B406" s="137" t="s">
-        <v>1492</v>
+      <c r="B406" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C406" s="137" t="s">
         <v>702</v>
@@ -32844,12 +32856,12 @@
       <c r="S406" s="135"/>
       <c r="T406" s="127"/>
     </row>
-    <row r="407" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A407" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B407" s="137" t="s">
-        <v>1492</v>
+      <c r="B407" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C407" s="137" t="s">
         <v>702</v>
@@ -32903,12 +32915,12 @@
       <c r="S407" s="135"/>
       <c r="T407" s="127"/>
     </row>
-    <row r="408" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A408" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B408" s="137" t="s">
-        <v>1492</v>
+      <c r="B408" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C408" s="137" t="s">
         <v>702</v>
@@ -32962,12 +32974,12 @@
       <c r="S408" s="135"/>
       <c r="T408" s="127"/>
     </row>
-    <row r="409" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A409" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B409" s="137" t="s">
-        <v>1492</v>
+      <c r="B409" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C409" s="137" t="s">
         <v>702</v>
@@ -33021,12 +33033,12 @@
       <c r="S409" s="135"/>
       <c r="T409" s="127"/>
     </row>
-    <row r="410" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A410" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B410" s="137" t="s">
-        <v>1492</v>
+      <c r="B410" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C410" s="137" t="s">
         <v>702</v>
@@ -33080,12 +33092,12 @@
       <c r="S410" s="135"/>
       <c r="T410" s="127"/>
     </row>
-    <row r="411" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A411" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B411" s="137" t="s">
-        <v>1492</v>
+      <c r="B411" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C411" s="137" t="s">
         <v>702</v>
@@ -33139,12 +33151,12 @@
       <c r="S411" s="135"/>
       <c r="T411" s="127"/>
     </row>
-    <row r="412" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A412" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B412" s="137" t="s">
-        <v>1492</v>
+      <c r="B412" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C412" s="137" t="s">
         <v>702</v>
@@ -33198,12 +33210,12 @@
       <c r="S412" s="135"/>
       <c r="T412" s="127"/>
     </row>
-    <row r="413" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A413" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B413" s="137" t="s">
-        <v>1492</v>
+      <c r="B413" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C413" s="137" t="s">
         <v>702</v>
@@ -33257,12 +33269,12 @@
       <c r="S413" s="135"/>
       <c r="T413" s="127"/>
     </row>
-    <row r="414" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A414" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B414" s="137" t="s">
-        <v>1492</v>
+      <c r="B414" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C414" s="137" t="s">
         <v>702</v>
@@ -33316,12 +33328,12 @@
       <c r="S414" s="135"/>
       <c r="T414" s="127"/>
     </row>
-    <row r="415" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A415" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B415" s="137" t="s">
-        <v>1492</v>
+      <c r="B415" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C415" s="137" t="s">
         <v>702</v>
@@ -33375,12 +33387,12 @@
       <c r="S415" s="135"/>
       <c r="T415" s="127"/>
     </row>
-    <row r="416" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A416" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B416" s="137" t="s">
-        <v>1492</v>
+      <c r="B416" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C416" s="137" t="s">
         <v>702</v>
@@ -33434,12 +33446,12 @@
       <c r="S416" s="135"/>
       <c r="T416" s="127"/>
     </row>
-    <row r="417" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A417" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B417" s="137" t="s">
-        <v>1492</v>
+      <c r="B417" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C417" s="137" t="s">
         <v>702</v>
@@ -33493,12 +33505,12 @@
       <c r="S417" s="135"/>
       <c r="T417" s="127"/>
     </row>
-    <row r="418" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A418" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B418" s="137" t="s">
-        <v>1492</v>
+      <c r="B418" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C418" s="137" t="s">
         <v>702</v>
@@ -33552,12 +33564,12 @@
       <c r="S418" s="135"/>
       <c r="T418" s="127"/>
     </row>
-    <row r="419" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A419" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B419" s="137" t="s">
-        <v>1492</v>
+      <c r="B419" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C419" s="137" t="s">
         <v>702</v>
@@ -33611,12 +33623,12 @@
       <c r="S419" s="135"/>
       <c r="T419" s="127"/>
     </row>
-    <row r="420" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A420" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B420" s="137" t="s">
-        <v>1492</v>
+      <c r="B420" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C420" s="137" t="s">
         <v>702</v>
@@ -33670,12 +33682,12 @@
       <c r="S420" s="135"/>
       <c r="T420" s="127"/>
     </row>
-    <row r="421" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A421" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B421" s="137" t="s">
-        <v>1492</v>
+      <c r="B421" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C421" s="137" t="s">
         <v>702</v>
@@ -33717,12 +33729,12 @@
       <c r="S421" s="135"/>
       <c r="T421" s="127"/>
     </row>
-    <row r="422" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A422" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B422" s="137" t="s">
-        <v>1492</v>
+      <c r="B422" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C422" s="137" t="s">
         <v>702</v>
@@ -33776,12 +33788,12 @@
       <c r="S422" s="135"/>
       <c r="T422" s="127"/>
     </row>
-    <row r="423" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A423" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B423" s="137" t="s">
-        <v>1492</v>
+      <c r="B423" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C423" s="137" t="s">
         <v>702</v>
@@ -33835,12 +33847,12 @@
       <c r="S423" s="135"/>
       <c r="T423" s="127"/>
     </row>
-    <row r="424" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A424" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B424" s="137" t="s">
-        <v>1492</v>
+      <c r="B424" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C424" s="137" t="s">
         <v>702</v>
@@ -33894,12 +33906,12 @@
       <c r="S424" s="135"/>
       <c r="T424" s="127"/>
     </row>
-    <row r="425" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A425" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B425" s="137" t="s">
-        <v>1492</v>
+      <c r="B425" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C425" s="137" t="s">
         <v>702</v>
@@ -33953,12 +33965,12 @@
       <c r="S425" s="135"/>
       <c r="T425" s="127"/>
     </row>
-    <row r="426" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A426" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B426" s="137" t="s">
-        <v>1492</v>
+      <c r="B426" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C426" s="137" t="s">
         <v>702</v>
@@ -34012,12 +34024,12 @@
       <c r="S426" s="135"/>
       <c r="T426" s="127"/>
     </row>
-    <row r="427" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A427" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B427" s="137" t="s">
-        <v>1492</v>
+      <c r="B427" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C427" s="137" t="s">
         <v>702</v>
@@ -34071,12 +34083,12 @@
       <c r="S427" s="135"/>
       <c r="T427" s="127"/>
     </row>
-    <row r="428" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A428" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B428" s="137" t="s">
-        <v>1492</v>
+      <c r="B428" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C428" s="137" t="s">
         <v>702</v>
@@ -34130,12 +34142,12 @@
       <c r="S428" s="135"/>
       <c r="T428" s="127"/>
     </row>
-    <row r="429" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A429" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B429" s="137" t="s">
-        <v>1492</v>
+      <c r="B429" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C429" s="137" t="s">
         <v>702</v>
@@ -34189,12 +34201,12 @@
       <c r="S429" s="135"/>
       <c r="T429" s="127"/>
     </row>
-    <row r="430" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A430" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B430" s="137" t="s">
-        <v>1492</v>
+      <c r="B430" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C430" s="137" t="s">
         <v>702</v>
@@ -34248,12 +34260,12 @@
       <c r="S430" s="135"/>
       <c r="T430" s="127"/>
     </row>
-    <row r="431" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A431" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B431" s="137" t="s">
-        <v>1492</v>
+      <c r="B431" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C431" s="137" t="s">
         <v>702</v>
@@ -34307,12 +34319,12 @@
       <c r="S431" s="135"/>
       <c r="T431" s="127"/>
     </row>
-    <row r="432" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A432" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B432" s="137" t="s">
-        <v>1492</v>
+      <c r="B432" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C432" s="137" t="s">
         <v>702</v>
@@ -34366,12 +34378,12 @@
       <c r="S432" s="135"/>
       <c r="T432" s="127"/>
     </row>
-    <row r="433" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A433" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B433" s="137" t="s">
-        <v>1492</v>
+      <c r="B433" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C433" s="137" t="s">
         <v>702</v>
@@ -34425,12 +34437,12 @@
       <c r="S433" s="135"/>
       <c r="T433" s="127"/>
     </row>
-    <row r="434" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A434" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B434" s="137" t="s">
-        <v>1492</v>
+      <c r="B434" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C434" s="137" t="s">
         <v>702</v>
@@ -34484,12 +34496,12 @@
       <c r="S434" s="135"/>
       <c r="T434" s="127"/>
     </row>
-    <row r="435" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A435" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B435" s="137" t="s">
-        <v>1492</v>
+      <c r="B435" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C435" s="137" t="s">
         <v>702</v>
@@ -34543,12 +34555,12 @@
       <c r="S435" s="135"/>
       <c r="T435" s="127"/>
     </row>
-    <row r="436" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A436" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B436" s="137" t="s">
-        <v>1492</v>
+      <c r="B436" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C436" s="137" t="s">
         <v>702</v>
@@ -34602,12 +34614,12 @@
       <c r="S436" s="135"/>
       <c r="T436" s="127"/>
     </row>
-    <row r="437" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A437" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B437" s="137" t="s">
-        <v>1492</v>
+      <c r="B437" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C437" s="137" t="s">
         <v>702</v>
@@ -34661,12 +34673,12 @@
       <c r="S437" s="135"/>
       <c r="T437" s="127"/>
     </row>
-    <row r="438" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A438" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B438" s="137" t="s">
-        <v>1492</v>
+      <c r="B438" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C438" s="137" t="s">
         <v>702</v>
@@ -34720,12 +34732,12 @@
       <c r="S438" s="135"/>
       <c r="T438" s="127"/>
     </row>
-    <row r="439" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A439" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B439" s="137" t="s">
-        <v>1492</v>
+      <c r="B439" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C439" s="137" t="s">
         <v>702</v>
@@ -34779,12 +34791,12 @@
       <c r="S439" s="135"/>
       <c r="T439" s="127"/>
     </row>
-    <row r="440" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A440" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B440" s="137" t="s">
-        <v>1492</v>
+      <c r="B440" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C440" s="137" t="s">
         <v>702</v>
@@ -34838,12 +34850,12 @@
       <c r="S440" s="135"/>
       <c r="T440" s="127"/>
     </row>
-    <row r="441" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A441" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B441" s="137" t="s">
-        <v>1492</v>
+      <c r="B441" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C441" s="137" t="s">
         <v>702</v>
@@ -34897,12 +34909,12 @@
       <c r="S441" s="135"/>
       <c r="T441" s="127"/>
     </row>
-    <row r="442" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A442" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B442" s="137" t="s">
-        <v>1492</v>
+      <c r="B442" s="5" t="s">
+        <v>1486</v>
       </c>
       <c r="C442" s="137" t="s">
         <v>702</v>
@@ -34956,12 +34968,12 @@
       <c r="S442" s="135"/>
       <c r="T442" s="127"/>
     </row>
-    <row r="443" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A443" s="124" t="s">
         <v>1308</v>
       </c>
-      <c r="B443" s="150" t="s">
-        <v>1493</v>
+      <c r="B443" s="3" t="s">
+        <v>1487</v>
       </c>
       <c r="C443" s="150" t="s">
         <v>491</v>
@@ -35009,12 +35021,12 @@
       </c>
       <c r="T443" s="131"/>
     </row>
-    <row r="444" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A444" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B444" s="150" t="s">
-        <v>1494</v>
+      <c r="B444" s="3" t="s">
+        <v>1500</v>
       </c>
       <c r="C444" s="150" t="s">
         <v>762</v>
@@ -35046,12 +35058,12 @@
       <c r="S444" s="144"/>
       <c r="T444" s="131"/>
     </row>
-    <row r="445" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A445" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B445" s="150" t="s">
-        <v>1495</v>
+      <c r="B445" s="3" t="s">
+        <v>1501</v>
       </c>
       <c r="C445" s="150" t="s">
         <v>761</v>
@@ -35083,12 +35095,12 @@
       <c r="S445" s="144"/>
       <c r="T445" s="131"/>
     </row>
-    <row r="446" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A446" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B446" s="150" t="s">
-        <v>1496</v>
+      <c r="B446" s="3" t="s">
+        <v>1502</v>
       </c>
       <c r="C446" s="150" t="s">
         <v>1004</v>
@@ -35124,12 +35136,12 @@
       <c r="S446" s="135"/>
       <c r="T446" s="131"/>
     </row>
-    <row r="447" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A447" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B447" s="137" t="s">
-        <v>1496</v>
+      <c r="B447" s="5" t="s">
+        <v>1502</v>
       </c>
       <c r="C447" s="137" t="s">
         <v>1004</v>
@@ -35165,12 +35177,12 @@
       <c r="S447" s="135"/>
       <c r="T447" s="131"/>
     </row>
-    <row r="448" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A448" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B448" s="137" t="s">
-        <v>1496</v>
+      <c r="B448" s="5" t="s">
+        <v>1502</v>
       </c>
       <c r="C448" s="137" t="s">
         <v>1004</v>
@@ -35206,12 +35218,12 @@
       <c r="S448" s="135"/>
       <c r="T448" s="131"/>
     </row>
-    <row r="449" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A449" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B449" s="150" t="s">
-        <v>1497</v>
+      <c r="B449" s="3" t="s">
+        <v>1488</v>
       </c>
       <c r="C449" s="150" t="s">
         <v>345</v>
@@ -35261,12 +35273,12 @@
       <c r="S449" s="144"/>
       <c r="T449" s="131"/>
     </row>
-    <row r="450" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A450" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B450" s="137" t="s">
-        <v>1497</v>
+      <c r="B450" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C450" s="137" t="s">
         <v>345</v>
@@ -35316,12 +35328,12 @@
       <c r="S450" s="132"/>
       <c r="T450" s="129"/>
     </row>
-    <row r="451" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A451" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B451" s="137" t="s">
-        <v>1497</v>
+      <c r="B451" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C451" s="137" t="s">
         <v>345</v>
@@ -35371,12 +35383,12 @@
       <c r="S451" s="132"/>
       <c r="T451" s="129"/>
     </row>
-    <row r="452" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A452" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B452" s="137" t="s">
-        <v>1497</v>
+      <c r="B452" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C452" s="137" t="s">
         <v>345</v>
@@ -35426,12 +35438,12 @@
       <c r="S452" s="132"/>
       <c r="T452" s="129"/>
     </row>
-    <row r="453" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A453" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B453" s="137" t="s">
-        <v>1497</v>
+      <c r="B453" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C453" s="137" t="s">
         <v>345</v>
@@ -35467,12 +35479,12 @@
       <c r="S453" s="132"/>
       <c r="T453" s="129"/>
     </row>
-    <row r="454" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A454" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B454" s="137" t="s">
-        <v>1497</v>
+      <c r="B454" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C454" s="137" t="s">
         <v>345</v>
@@ -35508,12 +35520,12 @@
       <c r="S454" s="132"/>
       <c r="T454" s="129"/>
     </row>
-    <row r="455" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A455" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B455" s="137" t="s">
-        <v>1497</v>
+      <c r="B455" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C455" s="137" t="s">
         <v>345</v>
@@ -35549,12 +35561,12 @@
       <c r="S455" s="132"/>
       <c r="T455" s="129"/>
     </row>
-    <row r="456" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A456" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B456" s="137" t="s">
-        <v>1497</v>
+      <c r="B456" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C456" s="137" t="s">
         <v>345</v>
@@ -35590,12 +35602,12 @@
       <c r="S456" s="132"/>
       <c r="T456" s="129"/>
     </row>
-    <row r="457" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A457" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B457" s="137" t="s">
-        <v>1497</v>
+      <c r="B457" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C457" s="137" t="s">
         <v>345</v>
@@ -35645,12 +35657,12 @@
       <c r="S457" s="132"/>
       <c r="T457" s="129"/>
     </row>
-    <row r="458" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A458" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B458" s="137" t="s">
-        <v>1497</v>
+      <c r="B458" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C458" s="137" t="s">
         <v>345</v>
@@ -35686,12 +35698,12 @@
       <c r="S458" s="132"/>
       <c r="T458" s="129"/>
     </row>
-    <row r="459" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A459" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B459" s="137" t="s">
-        <v>1497</v>
+      <c r="B459" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C459" s="137" t="s">
         <v>345</v>
@@ -35741,12 +35753,12 @@
       <c r="S459" s="132"/>
       <c r="T459" s="129"/>
     </row>
-    <row r="460" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A460" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B460" s="137" t="s">
-        <v>1497</v>
+      <c r="B460" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C460" s="137" t="s">
         <v>345</v>
@@ -35782,12 +35794,12 @@
       <c r="S460" s="132"/>
       <c r="T460" s="129"/>
     </row>
-    <row r="461" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:20" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A461" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B461" s="137" t="s">
-        <v>1497</v>
+      <c r="B461" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C461" s="137" t="s">
         <v>345</v>
@@ -35837,12 +35849,12 @@
       <c r="S461" s="132"/>
       <c r="T461" s="129"/>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A462" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B462" s="137" t="s">
-        <v>1497</v>
+      <c r="B462" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C462" s="137" t="s">
         <v>345</v>
@@ -35892,12 +35904,12 @@
       <c r="S462" s="132"/>
       <c r="T462" s="129"/>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A463" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B463" s="137" t="s">
-        <v>1497</v>
+      <c r="B463" s="5" t="s">
+        <v>1488</v>
       </c>
       <c r="C463" s="137" t="s">
         <v>345</v>
@@ -35933,12 +35945,12 @@
       <c r="S463" s="132"/>
       <c r="T463" s="129"/>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A464" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B464" s="150" t="s">
-        <v>1498</v>
+      <c r="B464" s="3" t="s">
+        <v>1489</v>
       </c>
       <c r="C464" s="150" t="s">
         <v>269</v>
@@ -35986,12 +35998,12 @@
       </c>
       <c r="T464" s="131"/>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A465" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B465" s="150" t="s">
-        <v>1499</v>
+      <c r="B465" s="3" t="s">
+        <v>1490</v>
       </c>
       <c r="C465" s="150" t="s">
         <v>268</v>
@@ -36039,12 +36051,12 @@
       </c>
       <c r="T465" s="131"/>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A466" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B466" s="61" t="s">
-        <v>1500</v>
+      <c r="B466" s="4" t="s">
+        <v>1491</v>
       </c>
       <c r="C466" s="61" t="s">
         <v>115</v>
@@ -36098,12 +36110,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A467" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B467" s="137" t="s">
-        <v>1500</v>
+      <c r="B467" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C467" s="137" t="s">
         <v>115</v>
@@ -36155,12 +36167,12 @@
       </c>
       <c r="T467" s="127"/>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A468" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B468" s="137" t="s">
-        <v>1500</v>
+      <c r="B468" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C468" s="137" t="s">
         <v>115</v>
@@ -36196,12 +36208,12 @@
       <c r="S468" s="136"/>
       <c r="T468" s="127"/>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A469" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B469" s="137" t="s">
-        <v>1500</v>
+      <c r="B469" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C469" s="137" t="s">
         <v>115</v>
@@ -36239,12 +36251,12 @@
       <c r="S469" s="135"/>
       <c r="T469" s="127"/>
     </row>
-    <row r="470" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:20" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A470" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B470" s="137" t="s">
-        <v>1500</v>
+      <c r="B470" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C470" s="137" t="s">
         <v>115</v>
@@ -36282,12 +36294,12 @@
       <c r="S470" s="135"/>
       <c r="T470" s="127"/>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A471" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B471" s="137" t="s">
-        <v>1500</v>
+      <c r="B471" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C471" s="137" t="s">
         <v>115</v>
@@ -36325,12 +36337,12 @@
       <c r="S471" s="135"/>
       <c r="T471" s="127"/>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A472" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B472" s="137" t="s">
-        <v>1500</v>
+      <c r="B472" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C472" s="137" t="s">
         <v>115</v>
@@ -36368,12 +36380,12 @@
       <c r="S472" s="135"/>
       <c r="T472" s="127"/>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A473" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B473" s="137" t="s">
-        <v>1500</v>
+      <c r="B473" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C473" s="137" t="s">
         <v>115</v>
@@ -36411,12 +36423,12 @@
       <c r="S473" s="135"/>
       <c r="T473" s="127"/>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A474" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B474" s="137" t="s">
-        <v>1500</v>
+      <c r="B474" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C474" s="137" t="s">
         <v>115</v>
@@ -36468,12 +36480,12 @@
       </c>
       <c r="T474" s="127"/>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A475" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B475" s="137" t="s">
-        <v>1500</v>
+      <c r="B475" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C475" s="137" t="s">
         <v>115</v>
@@ -36525,12 +36537,12 @@
       </c>
       <c r="T475" s="127"/>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A476" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B476" s="137" t="s">
-        <v>1500</v>
+      <c r="B476" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C476" s="137" t="s">
         <v>115</v>
@@ -36566,12 +36578,12 @@
       <c r="S476" s="135"/>
       <c r="T476" s="127"/>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A477" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B477" s="137" t="s">
-        <v>1500</v>
+      <c r="B477" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C477" s="137" t="s">
         <v>115</v>
@@ -36607,12 +36619,12 @@
       <c r="S477" s="135"/>
       <c r="T477" s="127"/>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A478" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B478" s="137" t="s">
-        <v>1500</v>
+      <c r="B478" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C478" s="137" t="s">
         <v>115</v>
@@ -36648,12 +36660,12 @@
       <c r="S478" s="135"/>
       <c r="T478" s="127"/>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A479" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B479" s="137" t="s">
-        <v>1500</v>
+      <c r="B479" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C479" s="137" t="s">
         <v>115</v>
@@ -36705,12 +36717,12 @@
       </c>
       <c r="T479" s="127"/>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A480" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B480" s="137" t="s">
-        <v>1500</v>
+      <c r="B480" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C480" s="137" t="s">
         <v>115</v>
@@ -36762,12 +36774,12 @@
       </c>
       <c r="T480" s="127"/>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A481" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B481" s="137" t="s">
-        <v>1500</v>
+      <c r="B481" s="5" t="s">
+        <v>1491</v>
       </c>
       <c r="C481" s="137" t="s">
         <v>115</v>
@@ -36803,12 +36815,12 @@
       <c r="S481" s="135"/>
       <c r="T481" s="127"/>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A482" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B482" s="61" t="s">
-        <v>1501</v>
+      <c r="B482" s="4" t="s">
+        <v>1492</v>
       </c>
       <c r="C482" s="61" t="s">
         <v>116</v>
@@ -36844,12 +36856,12 @@
       <c r="S482" s="132"/>
       <c r="T482" s="129"/>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A483" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B483" s="137" t="s">
-        <v>1501</v>
+      <c r="B483" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C483" s="137" t="s">
         <v>116</v>
@@ -36883,12 +36895,12 @@
       <c r="S483" s="132"/>
       <c r="T483" s="129"/>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A484" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B484" s="137" t="s">
-        <v>1501</v>
+      <c r="B484" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C484" s="137" t="s">
         <v>116</v>
@@ -36922,12 +36934,12 @@
       <c r="S484" s="132"/>
       <c r="T484" s="129"/>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A485" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B485" s="137" t="s">
-        <v>1501</v>
+      <c r="B485" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C485" s="137" t="s">
         <v>116</v>
@@ -36961,12 +36973,12 @@
       <c r="S485" s="132"/>
       <c r="T485" s="129"/>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A486" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B486" s="137" t="s">
-        <v>1501</v>
+      <c r="B486" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C486" s="137" t="s">
         <v>116</v>
@@ -37000,12 +37012,12 @@
       <c r="S486" s="132"/>
       <c r="T486" s="129"/>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A487" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B487" s="137" t="s">
-        <v>1501</v>
+      <c r="B487" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C487" s="137" t="s">
         <v>116</v>
@@ -37039,12 +37051,12 @@
       <c r="S487" s="132"/>
       <c r="T487" s="129"/>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A488" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B488" s="137" t="s">
-        <v>1501</v>
+      <c r="B488" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C488" s="137" t="s">
         <v>116</v>
@@ -37078,12 +37090,12 @@
       <c r="S488" s="132"/>
       <c r="T488" s="129"/>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A489" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B489" s="137" t="s">
-        <v>1501</v>
+      <c r="B489" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C489" s="137" t="s">
         <v>116</v>
@@ -37117,12 +37129,12 @@
       <c r="S489" s="132"/>
       <c r="T489" s="129"/>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A490" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B490" s="137" t="s">
-        <v>1501</v>
+      <c r="B490" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C490" s="137" t="s">
         <v>116</v>
@@ -37156,12 +37168,12 @@
       <c r="S490" s="132"/>
       <c r="T490" s="129"/>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A491" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B491" s="137" t="s">
-        <v>1501</v>
+      <c r="B491" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C491" s="137" t="s">
         <v>116</v>
@@ -37195,12 +37207,12 @@
       <c r="S491" s="132"/>
       <c r="T491" s="129"/>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A492" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B492" s="137" t="s">
-        <v>1501</v>
+      <c r="B492" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C492" s="137" t="s">
         <v>116</v>
@@ -37234,12 +37246,12 @@
       <c r="S492" s="132"/>
       <c r="T492" s="129"/>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A493" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B493" s="137" t="s">
-        <v>1501</v>
+      <c r="B493" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C493" s="137" t="s">
         <v>116</v>
@@ -37273,12 +37285,12 @@
       <c r="S493" s="132"/>
       <c r="T493" s="129"/>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A494" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B494" s="137" t="s">
-        <v>1501</v>
+      <c r="B494" s="5" t="s">
+        <v>1492</v>
       </c>
       <c r="C494" s="137" t="s">
         <v>116</v>
@@ -37312,12 +37324,12 @@
       <c r="S494" s="132"/>
       <c r="T494" s="129"/>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A495" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B495" s="150" t="s">
-        <v>1502</v>
+      <c r="B495" s="3" t="s">
+        <v>1493</v>
       </c>
       <c r="C495" s="150" t="s">
         <v>254</v>
@@ -37353,12 +37365,12 @@
       <c r="S495" s="144"/>
       <c r="T495" s="131"/>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A496" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B496" s="155" t="s">
-        <v>1502</v>
+      <c r="B496" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C496" s="155" t="s">
         <v>254</v>
@@ -37394,12 +37406,12 @@
       <c r="S496" s="144"/>
       <c r="T496" s="131"/>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A497" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B497" s="155" t="s">
-        <v>1502</v>
+      <c r="B497" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C497" s="155" t="s">
         <v>254</v>
@@ -37435,12 +37447,12 @@
       <c r="S497" s="144"/>
       <c r="T497" s="131"/>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A498" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B498" s="155" t="s">
-        <v>1502</v>
+      <c r="B498" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C498" s="155" t="s">
         <v>254</v>
@@ -37496,12 +37508,12 @@
       </c>
       <c r="T498" s="131"/>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A499" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B499" s="155" t="s">
-        <v>1502</v>
+      <c r="B499" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C499" s="155" t="s">
         <v>254</v>
@@ -37537,12 +37549,12 @@
       <c r="S499" s="144"/>
       <c r="T499" s="131"/>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A500" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B500" s="155" t="s">
-        <v>1502</v>
+      <c r="B500" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C500" s="155" t="s">
         <v>254</v>
@@ -37578,12 +37590,12 @@
       <c r="S500" s="144"/>
       <c r="T500" s="131"/>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A501" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B501" s="155" t="s">
-        <v>1502</v>
+      <c r="B501" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C501" s="155" t="s">
         <v>254</v>
@@ -37619,12 +37631,12 @@
       <c r="S501" s="144"/>
       <c r="T501" s="131"/>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A502" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B502" s="155" t="s">
-        <v>1502</v>
+      <c r="B502" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C502" s="155" t="s">
         <v>254</v>
@@ -37660,12 +37672,12 @@
       <c r="S502" s="144"/>
       <c r="T502" s="131"/>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A503" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B503" s="155" t="s">
-        <v>1502</v>
+      <c r="B503" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C503" s="155" t="s">
         <v>254</v>
@@ -37701,12 +37713,12 @@
       <c r="S503" s="144"/>
       <c r="T503" s="131"/>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A504" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B504" s="155" t="s">
-        <v>1502</v>
+      <c r="B504" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C504" s="155" t="s">
         <v>254</v>
@@ -37742,12 +37754,12 @@
       <c r="S504" s="144"/>
       <c r="T504" s="131"/>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A505" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B505" s="155" t="s">
-        <v>1502</v>
+      <c r="B505" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C505" s="155" t="s">
         <v>254</v>
@@ -37783,12 +37795,12 @@
       <c r="S505" s="144"/>
       <c r="T505" s="131"/>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A506" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B506" s="155" t="s">
-        <v>1502</v>
+      <c r="B506" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C506" s="155" t="s">
         <v>254</v>
@@ -37824,12 +37836,12 @@
       <c r="S506" s="144"/>
       <c r="T506" s="131"/>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A507" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B507" s="155" t="s">
-        <v>1502</v>
+      <c r="B507" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C507" s="155" t="s">
         <v>254</v>
@@ -37865,12 +37877,12 @@
       <c r="S507" s="144"/>
       <c r="T507" s="131"/>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A508" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B508" s="155" t="s">
-        <v>1502</v>
+      <c r="B508" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C508" s="155" t="s">
         <v>254</v>
@@ -37906,12 +37918,12 @@
       <c r="S508" s="144"/>
       <c r="T508" s="131"/>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A509" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B509" s="155" t="s">
-        <v>1502</v>
+      <c r="B509" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C509" s="155" t="s">
         <v>254</v>
@@ -37967,12 +37979,12 @@
       </c>
       <c r="T509" s="131"/>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A510" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B510" s="155" t="s">
-        <v>1502</v>
+      <c r="B510" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C510" s="155" t="s">
         <v>254</v>
@@ -38008,12 +38020,12 @@
       <c r="S510" s="144"/>
       <c r="T510" s="131"/>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A511" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B511" s="155" t="s">
-        <v>1502</v>
+      <c r="B511" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C511" s="155" t="s">
         <v>254</v>
@@ -38049,12 +38061,12 @@
       <c r="S511" s="144"/>
       <c r="T511" s="131"/>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A512" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B512" s="155" t="s">
-        <v>1502</v>
+      <c r="B512" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C512" s="155" t="s">
         <v>254</v>
@@ -38110,12 +38122,12 @@
       </c>
       <c r="T512" s="131"/>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A513" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B513" s="155" t="s">
-        <v>1502</v>
+      <c r="B513" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C513" s="155" t="s">
         <v>254</v>
@@ -38151,12 +38163,12 @@
       <c r="S513" s="144"/>
       <c r="T513" s="131"/>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A514" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B514" s="155" t="s">
-        <v>1502</v>
+      <c r="B514" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C514" s="155" t="s">
         <v>254</v>
@@ -38192,12 +38204,12 @@
       <c r="S514" s="144"/>
       <c r="T514" s="131"/>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A515" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B515" s="155" t="s">
-        <v>1502</v>
+      <c r="B515" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C515" s="155" t="s">
         <v>254</v>
@@ -38233,12 +38245,12 @@
       <c r="S515" s="144"/>
       <c r="T515" s="131"/>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A516" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B516" s="155" t="s">
-        <v>1502</v>
+      <c r="B516" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C516" s="155" t="s">
         <v>254</v>
@@ -38274,12 +38286,12 @@
       <c r="S516" s="144"/>
       <c r="T516" s="131"/>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A517" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B517" s="155" t="s">
-        <v>1502</v>
+      <c r="B517" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C517" s="155" t="s">
         <v>254</v>
@@ -38315,12 +38327,12 @@
       <c r="S517" s="144"/>
       <c r="T517" s="131"/>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A518" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B518" s="155" t="s">
-        <v>1502</v>
+      <c r="B518" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C518" s="155" t="s">
         <v>254</v>
@@ -38356,12 +38368,12 @@
       <c r="S518" s="144"/>
       <c r="T518" s="131"/>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A519" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B519" s="155" t="s">
-        <v>1502</v>
+      <c r="B519" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C519" s="155" t="s">
         <v>254</v>
@@ -38397,12 +38409,12 @@
       <c r="S519" s="144"/>
       <c r="T519" s="131"/>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A520" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B520" s="155" t="s">
-        <v>1502</v>
+      <c r="B520" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C520" s="155" t="s">
         <v>254</v>
@@ -38438,12 +38450,12 @@
       <c r="S520" s="144"/>
       <c r="T520" s="131"/>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A521" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B521" s="155" t="s">
-        <v>1502</v>
+      <c r="B521" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C521" s="155" t="s">
         <v>254</v>
@@ -38479,12 +38491,12 @@
       <c r="S521" s="144"/>
       <c r="T521" s="131"/>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A522" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B522" s="155" t="s">
-        <v>1502</v>
+      <c r="B522" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C522" s="155" t="s">
         <v>254</v>
@@ -38520,12 +38532,12 @@
       <c r="S522" s="144"/>
       <c r="T522" s="131"/>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A523" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B523" s="155" t="s">
-        <v>1502</v>
+      <c r="B523" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C523" s="155" t="s">
         <v>254</v>
@@ -38561,12 +38573,12 @@
       <c r="S523" s="144"/>
       <c r="T523" s="131"/>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A524" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B524" s="155" t="s">
-        <v>1502</v>
+      <c r="B524" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C524" s="155" t="s">
         <v>254</v>
@@ -38602,12 +38614,12 @@
       <c r="S524" s="144"/>
       <c r="T524" s="131"/>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A525" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B525" s="155" t="s">
-        <v>1502</v>
+      <c r="B525" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C525" s="155" t="s">
         <v>254</v>
@@ -38643,12 +38655,12 @@
       <c r="S525" s="144"/>
       <c r="T525" s="131"/>
     </row>
-    <row r="526" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:20" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A526" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B526" s="155" t="s">
-        <v>1502</v>
+      <c r="B526" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C526" s="155" t="s">
         <v>254</v>
@@ -38684,12 +38696,12 @@
       <c r="S526" s="144"/>
       <c r="T526" s="131"/>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A527" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B527" s="155" t="s">
-        <v>1502</v>
+      <c r="B527" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C527" s="155" t="s">
         <v>254</v>
@@ -38725,12 +38737,12 @@
       <c r="S527" s="144"/>
       <c r="T527" s="131"/>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A528" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B528" s="155" t="s">
-        <v>1502</v>
+      <c r="B528" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C528" s="155" t="s">
         <v>254</v>
@@ -38766,12 +38778,12 @@
       <c r="S528" s="144"/>
       <c r="T528" s="131"/>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A529" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B529" s="155" t="s">
-        <v>1502</v>
+      <c r="B529" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C529" s="155" t="s">
         <v>254</v>
@@ -38807,12 +38819,12 @@
       <c r="S529" s="144"/>
       <c r="T529" s="131"/>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A530" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B530" s="155" t="s">
-        <v>1502</v>
+      <c r="B530" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C530" s="155" t="s">
         <v>254</v>
@@ -38848,12 +38860,12 @@
       <c r="S530" s="144"/>
       <c r="T530" s="131"/>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A531" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B531" s="155" t="s">
-        <v>1502</v>
+      <c r="B531" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C531" s="155" t="s">
         <v>254</v>
@@ -38889,12 +38901,12 @@
       <c r="S531" s="144"/>
       <c r="T531" s="131"/>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A532" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B532" s="155" t="s">
-        <v>1502</v>
+      <c r="B532" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C532" s="155" t="s">
         <v>254</v>
@@ -38930,12 +38942,12 @@
       <c r="S532" s="144"/>
       <c r="T532" s="131"/>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A533" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B533" s="155" t="s">
-        <v>1502</v>
+      <c r="B533" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C533" s="155" t="s">
         <v>254</v>
@@ -38971,12 +38983,12 @@
       <c r="S533" s="144"/>
       <c r="T533" s="131"/>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A534" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B534" s="155" t="s">
-        <v>1502</v>
+      <c r="B534" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C534" s="155" t="s">
         <v>254</v>
@@ -39012,12 +39024,12 @@
       <c r="S534" s="144"/>
       <c r="T534" s="131"/>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A535" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B535" s="155" t="s">
-        <v>1502</v>
+      <c r="B535" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C535" s="155" t="s">
         <v>254</v>
@@ -39053,12 +39065,12 @@
       <c r="S535" s="144"/>
       <c r="T535" s="131"/>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A536" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B536" s="155" t="s">
-        <v>1502</v>
+      <c r="B536" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C536" s="155" t="s">
         <v>254</v>
@@ -39094,12 +39106,12 @@
       <c r="S536" s="144"/>
       <c r="T536" s="131"/>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A537" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B537" s="155" t="s">
-        <v>1502</v>
+      <c r="B537" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C537" s="155" t="s">
         <v>254</v>
@@ -39135,12 +39147,12 @@
       <c r="S537" s="144"/>
       <c r="T537" s="131"/>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A538" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B538" s="155" t="s">
-        <v>1502</v>
+      <c r="B538" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C538" s="155" t="s">
         <v>254</v>
@@ -39176,12 +39188,12 @@
       <c r="S538" s="144"/>
       <c r="T538" s="131"/>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A539" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B539" s="155" t="s">
-        <v>1502</v>
+      <c r="B539" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C539" s="155" t="s">
         <v>254</v>
@@ -39217,12 +39229,12 @@
       <c r="S539" s="144"/>
       <c r="T539" s="131"/>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:20" ht="29" x14ac:dyDescent="0.35">
       <c r="A540" s="124" t="s">
         <v>1321</v>
       </c>
-      <c r="B540" s="155" t="s">
-        <v>1502</v>
+      <c r="B540" s="222" t="s">
+        <v>1493</v>
       </c>
       <c r="C540" s="155" t="s">
         <v>254</v>
@@ -44842,13 +44854,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="218" t="s">
@@ -44917,13 +44929,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="217" t="s">
+      <c r="A60" s="214" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="217"/>
-      <c r="C60" s="217"/>
-      <c r="D60" s="217"/>
-      <c r="E60" s="217"/>
+      <c r="B60" s="214"/>
+      <c r="C60" s="214"/>
+      <c r="D60" s="214"/>
+      <c r="E60" s="214"/>
     </row>
     <row r="85" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="9" t="s">
@@ -45028,13 +45040,13 @@
       </c>
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="A89" s="217" t="s">
+      <c r="A89" s="214" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="217"/>
-      <c r="C89" s="217"/>
-      <c r="D89" s="217"/>
-      <c r="E89" s="217"/>
+      <c r="B89" s="214"/>
+      <c r="C89" s="214"/>
+      <c r="D89" s="214"/>
+      <c r="E89" s="214"/>
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A90" s="9">
@@ -45121,13 +45133,13 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="217" t="s">
+      <c r="A98" s="214" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="217"/>
-      <c r="C98" s="217"/>
-      <c r="D98" s="217"/>
-      <c r="E98" s="217"/>
+      <c r="B98" s="214"/>
+      <c r="C98" s="214"/>
+      <c r="D98" s="214"/>
+      <c r="E98" s="214"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="16">
@@ -45211,13 +45223,13 @@
       <c r="A108" s="19"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="217" t="s">
+      <c r="A109" s="214" t="s">
         <v>156</v>
       </c>
-      <c r="B109" s="217"/>
-      <c r="C109" s="217"/>
-      <c r="D109" s="217"/>
-      <c r="E109" s="217"/>
+      <c r="B109" s="214"/>
+      <c r="C109" s="214"/>
+      <c r="D109" s="214"/>
+      <c r="E109" s="214"/>
     </row>
     <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -45230,13 +45242,13 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A113" s="217" t="s">
+      <c r="A113" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="B113" s="217"/>
-      <c r="C113" s="217"/>
-      <c r="D113" s="217"/>
-      <c r="E113" s="217"/>
+      <c r="B113" s="214"/>
+      <c r="C113" s="214"/>
+      <c r="D113" s="214"/>
+      <c r="E113" s="214"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="16">
@@ -45317,13 +45329,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A124" s="217" t="s">
+      <c r="A124" s="214" t="s">
         <v>400</v>
       </c>
-      <c r="B124" s="217"/>
-      <c r="C124" s="217"/>
-      <c r="D124" s="217"/>
-      <c r="E124" s="217"/>
+      <c r="B124" s="214"/>
+      <c r="C124" s="214"/>
+      <c r="D124" s="214"/>
+      <c r="E124" s="214"/>
       <c r="L124" s="20"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
@@ -45414,13 +45426,13 @@
       <c r="C133" s="14"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A134" s="217" t="s">
+      <c r="A134" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="B134" s="217"/>
-      <c r="C134" s="217"/>
-      <c r="D134" s="217"/>
-      <c r="E134" s="217"/>
+      <c r="B134" s="214"/>
+      <c r="C134" s="214"/>
+      <c r="D134" s="214"/>
+      <c r="E134" s="214"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="26" t="s">
@@ -45435,25 +45447,25 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="28"/>
-      <c r="B136" s="214" t="s">
+      <c r="B136" s="215" t="s">
         <v>420</v>
       </c>
-      <c r="C136" s="215"/>
-      <c r="D136" s="215"/>
-      <c r="E136" s="216"/>
+      <c r="C136" s="216"/>
+      <c r="D136" s="216"/>
+      <c r="E136" s="217"/>
       <c r="F136" s="27"/>
       <c r="G136" s="27"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="29"/>
-      <c r="B137" s="214" t="s">
+      <c r="B137" s="215" t="s">
         <v>421</v>
       </c>
-      <c r="C137" s="216"/>
-      <c r="D137" s="214" t="s">
+      <c r="C137" s="217"/>
+      <c r="D137" s="215" t="s">
         <v>422</v>
       </c>
-      <c r="E137" s="216"/>
+      <c r="E137" s="217"/>
       <c r="F137" s="27"/>
       <c r="G137" s="27"/>
     </row>
@@ -46000,13 +46012,13 @@
       <c r="G163" s="27"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="217" t="s">
+      <c r="A165" s="214" t="s">
         <v>159</v>
       </c>
-      <c r="B165" s="217"/>
-      <c r="C165" s="217"/>
-      <c r="D165" s="217"/>
-      <c r="E165" s="217"/>
+      <c r="B165" s="214"/>
+      <c r="C165" s="214"/>
+      <c r="D165" s="214"/>
+      <c r="E165" s="214"/>
     </row>
     <row r="166" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="22" t="s">
@@ -46029,10 +46041,10 @@
       <c r="B168" s="45"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="217" t="s">
+      <c r="A169" s="214" t="s">
         <v>408</v>
       </c>
-      <c r="B169" s="217"/>
+      <c r="B169" s="214"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="22" t="s">
@@ -46064,13 +46076,13 @@
       <c r="B173" s="45"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="217" t="s">
+      <c r="A174" s="214" t="s">
         <v>168</v>
       </c>
-      <c r="B174" s="217"/>
-      <c r="C174" s="217"/>
-      <c r="D174" s="217"/>
-      <c r="E174" s="217"/>
+      <c r="B174" s="214"/>
+      <c r="C174" s="214"/>
+      <c r="D174" s="214"/>
+      <c r="E174" s="214"/>
     </row>
     <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="22" t="s">
@@ -46090,13 +46102,13 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A178" s="217" t="s">
+      <c r="A178" s="214" t="s">
         <v>162</v>
       </c>
-      <c r="B178" s="217"/>
-      <c r="C178" s="217"/>
-      <c r="D178" s="217"/>
-      <c r="E178" s="217"/>
+      <c r="B178" s="214"/>
+      <c r="C178" s="214"/>
+      <c r="D178" s="214"/>
+      <c r="E178" s="214"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="24" t="s">
@@ -46124,13 +46136,13 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A183" s="217" t="s">
+      <c r="A183" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="B183" s="217"/>
-      <c r="C183" s="217"/>
-      <c r="D183" s="217"/>
-      <c r="E183" s="217"/>
+      <c r="B183" s="214"/>
+      <c r="C183" s="214"/>
+      <c r="D183" s="214"/>
+      <c r="E183" s="214"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="22" t="s">
@@ -46185,13 +46197,13 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" s="217" t="s">
+      <c r="A191" s="214" t="s">
         <v>178</v>
       </c>
-      <c r="B191" s="217"/>
-      <c r="C191" s="217"/>
-      <c r="D191" s="217"/>
-      <c r="E191" s="217"/>
+      <c r="B191" s="214"/>
+      <c r="C191" s="214"/>
+      <c r="D191" s="214"/>
+      <c r="E191" s="214"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="20" t="s">
@@ -46251,12 +46263,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A178:E178"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A174:E174"/>
-    <mergeCell ref="A169:B169"/>
     <mergeCell ref="B136:E136"/>
     <mergeCell ref="B137:C137"/>
     <mergeCell ref="D137:E137"/>
@@ -46271,6 +46277,12 @@
     <mergeCell ref="A113:E113"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A174:E174"/>
+    <mergeCell ref="A169:B169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
